--- a/teaching/traditional_assets/database/data/mauritius/mauritius_farming_agriculture.xlsx
+++ b/teaching/traditional_assets/database/data/mauritius/mauritius_farming_agriculture.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="muse_lfl_i0000" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,43 +593,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.022</v>
+        <v>0.04725000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.0107</v>
       </c>
       <c r="G2">
-        <v>0.05718475073313783</v>
+        <v>0.03783303730017761</v>
       </c>
       <c r="H2">
-        <v>0.05718475073313783</v>
+        <v>0.03783303730017761</v>
       </c>
       <c r="I2">
-        <v>-0.1234604105571847</v>
+        <v>-0.0408525754884547</v>
       </c>
       <c r="J2">
-        <v>-0.1234604105571847</v>
+        <v>-0.03807208081313918</v>
       </c>
       <c r="K2">
-        <v>6.75</v>
+        <v>-13.18</v>
       </c>
       <c r="L2">
-        <v>0.1979472140762463</v>
+        <v>-0.1170515097690941</v>
       </c>
       <c r="M2">
-        <v>8.505000000000001</v>
+        <v>0.945</v>
       </c>
       <c r="N2">
-        <v>0.04722376457523599</v>
+        <v>0.006217105263157894</v>
       </c>
       <c r="O2">
-        <v>1.26</v>
+        <v>-0.07169954476479513</v>
       </c>
       <c r="P2">
-        <v>8.505000000000001</v>
+        <v>0.945</v>
       </c>
       <c r="Q2">
-        <v>0.04722376457523599</v>
+        <v>0.006217105263157894</v>
       </c>
       <c r="R2">
-        <v>1.26</v>
+        <v>-0.07169954476479513</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,61 +647,61 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.01575262543757293</v>
+        <v>0.01737732002249719</v>
       </c>
       <c r="X2">
-        <v>0.0924061718388912</v>
+        <v>0.08276319573290737</v>
       </c>
       <c r="Y2">
-        <v>-0.07665354640131827</v>
+        <v>-0.06538587571041019</v>
       </c>
       <c r="Z2">
-        <v>0.06720536066219945</v>
+        <v>0.1806223933269169</v>
       </c>
       <c r="AA2">
-        <v>-0.008297201418998817</v>
+        <v>0.03092640406030588</v>
       </c>
       <c r="AB2">
-        <v>0.06473608258624788</v>
+        <v>0.05740210009594617</v>
       </c>
       <c r="AC2">
-        <v>-0.0730332840052467</v>
+        <v>-0.02647569603564028</v>
       </c>
       <c r="AD2">
-        <v>169.4</v>
+        <v>171.6</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>169.4</v>
+        <v>171.6</v>
       </c>
       <c r="AG2">
-        <v>169.4</v>
+        <v>171.6</v>
       </c>
       <c r="AH2">
-        <v>0.4846924177396281</v>
+        <v>0.5302843016069221</v>
       </c>
       <c r="AI2">
-        <v>0.2957402234636872</v>
+        <v>0.2868605817452357</v>
       </c>
       <c r="AJ2">
-        <v>0.4846924177396281</v>
+        <v>0.5302843016069221</v>
       </c>
       <c r="AK2">
-        <v>0.2957402234636872</v>
+        <v>0.2868605817452357</v>
       </c>
       <c r="AL2">
-        <v>8.44</v>
+        <v>8.25</v>
       </c>
       <c r="AM2">
-        <v>8.44</v>
+        <v>8.25</v>
       </c>
       <c r="AO2">
-        <v>-0.4988151658767773</v>
+        <v>-0.5575757575757575</v>
       </c>
       <c r="AQ2">
-        <v>-0.4988151658767773</v>
+        <v>-0.5575757575757575</v>
       </c>
     </row>
     <row r="3">
@@ -707,121 +712,8964 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Livestock Feed Limited (MUSE:LFL.I0000)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Farming/Agriculture</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.0107</v>
+      </c>
+      <c r="G3">
+        <v>0.08603213844252162</v>
+      </c>
+      <c r="H3">
+        <v>0.08603213844252162</v>
+      </c>
+      <c r="I3">
+        <v>0.05661310259579728</v>
+      </c>
+      <c r="J3">
+        <v>0.04890673752879227</v>
+      </c>
+      <c r="K3">
+        <v>3.92</v>
+      </c>
+      <c r="L3">
+        <v>0.0484548825710754</v>
+      </c>
+      <c r="M3">
+        <v>0.945</v>
+      </c>
+      <c r="N3">
+        <v>0.02310513447432763</v>
+      </c>
+      <c r="O3">
+        <v>0.2410714285714286</v>
+      </c>
+      <c r="P3">
+        <v>0.945</v>
+      </c>
+      <c r="Q3">
+        <v>0.02310513447432763</v>
+      </c>
+      <c r="R3">
+        <v>0.2410714285714286</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.07716535433070866</v>
+      </c>
+      <c r="X3">
+        <v>0.05365016598340493</v>
+      </c>
+      <c r="Y3">
+        <v>0.02351518834730373</v>
+      </c>
+      <c r="Z3">
+        <v>1.59251968503937</v>
+      </c>
+      <c r="AA3">
+        <v>0.07788494224565543</v>
+      </c>
+      <c r="AB3">
+        <v>0.05365016598340493</v>
+      </c>
+      <c r="AC3">
+        <v>0.0242347762622505</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1.3</v>
+      </c>
+      <c r="AM3">
+        <v>1.3</v>
+      </c>
+      <c r="AO3">
+        <v>3.523076923076923</v>
+      </c>
+      <c r="AQ3">
+        <v>3.523076923076923</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Medine Limited (MUSE:MSE.N0000)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Farming/Agriculture</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.006500000000000001</v>
+      </c>
+      <c r="G4">
+        <v>-0.08517350157728708</v>
+      </c>
+      <c r="H4">
+        <v>-0.08517350157728708</v>
+      </c>
+      <c r="I4">
+        <v>-0.289589905362776</v>
+      </c>
+      <c r="J4">
+        <v>-0.289589905362776</v>
+      </c>
+      <c r="K4">
+        <v>-17.1</v>
+      </c>
+      <c r="L4">
+        <v>-0.5394321766561515</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>-0.04241071428571429</v>
+      </c>
+      <c r="X4">
+        <v>0.1118762254824098</v>
+      </c>
+      <c r="Y4">
+        <v>-0.1542869397681241</v>
+      </c>
+      <c r="Z4">
+        <v>0.05536150890674118</v>
+      </c>
+      <c r="AA4">
+        <v>-0.01603213412504366</v>
+      </c>
+      <c r="AB4">
+        <v>0.06115403420848741</v>
+      </c>
+      <c r="AC4">
+        <v>-0.07718616833353106</v>
+      </c>
+      <c r="AD4">
+        <v>171.6</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>171.6</v>
+      </c>
+      <c r="AG4">
+        <v>171.6</v>
+      </c>
+      <c r="AH4">
+        <v>0.6070038910505836</v>
+      </c>
+      <c r="AI4">
+        <v>0.3122838944494996</v>
+      </c>
+      <c r="AJ4">
+        <v>0.6070038910505836</v>
+      </c>
+      <c r="AK4">
+        <v>0.3122838944494996</v>
+      </c>
+      <c r="AL4">
+        <v>6.95</v>
+      </c>
+      <c r="AM4">
+        <v>6.95</v>
+      </c>
+      <c r="AO4">
+        <v>-1.320863309352518</v>
+      </c>
+      <c r="AQ4">
+        <v>-1.320863309352518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Livestock Feed Limited (MUSE:LFL.I0000)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MUSE:LFL.I0000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Farming/Agriculture</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>40.9</v>
+      </c>
+      <c r="H2">
+        <v>20.9432740816579</v>
+      </c>
+      <c r="I2">
+        <v>40.9</v>
+      </c>
+      <c r="J2">
+        <v>41.3932740816579</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>20.45</v>
+      </c>
+      <c r="M2">
+        <v>0.0536501659834049</v>
+      </c>
+      <c r="N2">
+        <v>0.0525589035346496</v>
+      </c>
+      <c r="O2">
+        <v>0.0283146667811402</v>
+      </c>
+      <c r="P2">
+        <v>0.01377</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Ba1/BB+</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0536501659834049</v>
+      </c>
+      <c r="T2">
+        <v>0.0913478070692991</v>
+      </c>
+      <c r="U2">
+        <v>0.707734441183693</v>
+      </c>
+      <c r="V2">
+        <v>1.30930871618983</v>
+      </c>
+      <c r="W2">
+        <v>13.82474569108636</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>40.9</v>
+      </c>
+      <c r="AB2">
+        <v>0.06266498195174562</v>
+      </c>
+      <c r="AC2">
+        <v>0.03331137268369437</v>
+      </c>
+      <c r="AD2">
+        <v>0.15</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>-4.58</v>
+      </c>
+      <c r="AI2">
+        <v>-4.58</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1.3</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05365016598340493</v>
+      </c>
+      <c r="C2">
+        <v>40.9</v>
+      </c>
+      <c r="D2">
+        <v>40.9</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>40.9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>-4.58</v>
+      </c>
+      <c r="L2">
+        <v>4.58</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>4.58</v>
+      </c>
+      <c r="O2">
+        <v>0.6869999999999999</v>
+      </c>
+      <c r="P2">
+        <v>3.893</v>
+      </c>
+      <c r="Q2">
+        <v>-0.6869999999999998</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05365016598340493</v>
+      </c>
+      <c r="T2">
+        <v>0.7077344411836934</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.15</v>
+      </c>
+      <c r="W2">
+        <v>0.01377</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05362834073442981</v>
+      </c>
+      <c r="C3">
+        <v>40.50075024079569</v>
+      </c>
       <c r="D3">
-        <v>-0.022</v>
+        <v>40.90975024079569</v>
+      </c>
+      <c r="E3">
+        <v>0.409</v>
+      </c>
+      <c r="F3">
+        <v>0.409</v>
       </c>
       <c r="G3">
-        <v>0.05718475073313783</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.05718475073313783</v>
+        <v>40.9</v>
       </c>
       <c r="I3">
-        <v>-0.1234604105571847</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.1234604105571847</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.75</v>
+        <v>-4.58</v>
       </c>
       <c r="L3">
-        <v>0.1979472140762463</v>
+        <v>4.58</v>
       </c>
       <c r="M3">
-        <v>8.505000000000001</v>
+        <v>0.006625799999999999</v>
       </c>
       <c r="N3">
-        <v>0.04722376457523599</v>
+        <v>4.5733742</v>
       </c>
       <c r="O3">
-        <v>1.26</v>
+        <v>0.68600613</v>
       </c>
       <c r="P3">
-        <v>8.505000000000001</v>
+        <v>3.88736807</v>
       </c>
       <c r="Q3">
-        <v>0.04722376457523599</v>
+        <v>-0.6926319300000001</v>
       </c>
       <c r="R3">
-        <v>1.26</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.05403095023679778</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.7138109490120382</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="W3">
-        <v>0.01575262543757293</v>
-      </c>
-      <c r="X3">
-        <v>0.0924061718388912</v>
+        <v>0.01377</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y3">
-        <v>-0.07665354640131827</v>
+        <v>691.2372845543181</v>
       </c>
       <c r="Z3">
-        <v>0.06720536066219945</v>
-      </c>
-      <c r="AA3">
-        <v>-0.008297201418998817</v>
-      </c>
-      <c r="AB3">
-        <v>0.06473608258624788</v>
-      </c>
-      <c r="AC3">
-        <v>-0.0730332840052467</v>
-      </c>
-      <c r="AD3">
-        <v>169.4</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>169.4</v>
-      </c>
-      <c r="AG3">
-        <v>169.4</v>
-      </c>
-      <c r="AH3">
-        <v>0.4846924177396281</v>
-      </c>
-      <c r="AI3">
-        <v>0.2957402234636872</v>
-      </c>
-      <c r="AJ3">
-        <v>0.4846924177396281</v>
-      </c>
-      <c r="AK3">
-        <v>0.2957402234636872</v>
-      </c>
-      <c r="AL3">
-        <v>8.44</v>
-      </c>
-      <c r="AM3">
-        <v>8.44</v>
-      </c>
-      <c r="AO3">
-        <v>-0.4988151658767773</v>
-      </c>
-      <c r="AQ3">
-        <v>-0.4988151658767773</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.0536065154854547</v>
+      </c>
+      <c r="C4">
+        <v>40.10150513146247</v>
+      </c>
+      <c r="D4">
+        <v>40.91950513146246</v>
+      </c>
+      <c r="E4">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>40.9</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>-4.58</v>
+      </c>
+      <c r="L4">
+        <v>4.58</v>
+      </c>
+      <c r="M4">
+        <v>0.0132516</v>
+      </c>
+      <c r="N4">
+        <v>4.5667484</v>
+      </c>
+      <c r="O4">
+        <v>0.6850122599999999</v>
+      </c>
+      <c r="P4">
+        <v>3.88173614</v>
+      </c>
+      <c r="Q4">
+        <v>-0.69826386</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05441950559740276</v>
+      </c>
+      <c r="T4">
+        <v>0.7200114672042269</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.15</v>
+      </c>
+      <c r="W4">
+        <v>0.01377</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>345.618642277159</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.0535846902364796</v>
+      </c>
+      <c r="C5">
+        <v>39.70226467532745</v>
+      </c>
+      <c r="D5">
+        <v>40.92926467532745</v>
+      </c>
+      <c r="E5">
+        <v>1.227</v>
+      </c>
+      <c r="F5">
+        <v>1.227</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>40.9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>-4.58</v>
+      </c>
+      <c r="L5">
+        <v>4.58</v>
+      </c>
+      <c r="M5">
+        <v>0.0198774</v>
+      </c>
+      <c r="N5">
+        <v>4.5601226</v>
+      </c>
+      <c r="O5">
+        <v>0.68401839</v>
+      </c>
+      <c r="P5">
+        <v>3.87610421</v>
+      </c>
+      <c r="Q5">
+        <v>-0.7038957900000002</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05481607240874185</v>
+      </c>
+      <c r="T5">
+        <v>0.7263398311323369</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.15</v>
+      </c>
+      <c r="W5">
+        <v>0.01377</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>230.4124281847727</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05356286498750449</v>
+      </c>
+      <c r="C6">
+        <v>39.30302887572082</v>
+      </c>
+      <c r="D6">
+        <v>40.93902887572082</v>
+      </c>
+      <c r="E6">
+        <v>1.636</v>
+      </c>
+      <c r="F6">
+        <v>1.636</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>40.9</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-4.58</v>
+      </c>
+      <c r="L6">
+        <v>4.58</v>
+      </c>
+      <c r="M6">
+        <v>0.0265032</v>
+      </c>
+      <c r="N6">
+        <v>4.5534968</v>
+      </c>
+      <c r="O6">
+        <v>0.68302452</v>
+      </c>
+      <c r="P6">
+        <v>3.87047228</v>
+      </c>
+      <c r="Q6">
+        <v>-0.7095277199999996</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05522090102865052</v>
+      </c>
+      <c r="T6">
+        <v>0.7328000359756159</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.15</v>
+      </c>
+      <c r="W6">
+        <v>0.01377</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>172.8093211385795</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05354103973852939</v>
+      </c>
+      <c r="C7">
+        <v>38.90379773597604</v>
+      </c>
+      <c r="D7">
+        <v>40.94879773597604</v>
+      </c>
+      <c r="E7">
+        <v>2.045</v>
+      </c>
+      <c r="F7">
+        <v>2.045</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>40.9</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>-4.58</v>
+      </c>
+      <c r="L7">
+        <v>4.58</v>
+      </c>
+      <c r="M7">
+        <v>0.033129</v>
+      </c>
+      <c r="N7">
+        <v>4.546871</v>
+      </c>
+      <c r="O7">
+        <v>0.6820306500000001</v>
+      </c>
+      <c r="P7">
+        <v>3.86484035</v>
+      </c>
+      <c r="Q7">
+        <v>-0.7151596499999999</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05563425235634673</v>
+      </c>
+      <c r="T7">
+        <v>0.739396245131385</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.15</v>
+      </c>
+      <c r="W7">
+        <v>0.01377</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>138.2474569108636</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05351921448955427</v>
+      </c>
+      <c r="C8">
+        <v>38.50457125942971</v>
+      </c>
+      <c r="D8">
+        <v>40.95857125942971</v>
+      </c>
+      <c r="E8">
+        <v>2.454</v>
+      </c>
+      <c r="F8">
+        <v>2.454</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>40.9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-4.58</v>
+      </c>
+      <c r="L8">
+        <v>4.58</v>
+      </c>
+      <c r="M8">
+        <v>0.03975479999999999</v>
+      </c>
+      <c r="N8">
+        <v>4.5402452</v>
+      </c>
+      <c r="O8">
+        <v>0.68103678</v>
+      </c>
+      <c r="P8">
+        <v>3.85920842</v>
+      </c>
+      <c r="Q8">
+        <v>-0.7207915799999998</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05605639839314285</v>
+      </c>
+      <c r="T8">
+        <v>0.7461327991628087</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.15</v>
+      </c>
+      <c r="W8">
+        <v>0.01377</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>115.2062140923863</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05349738924057916</v>
+      </c>
+      <c r="C9">
+        <v>38.1053494494216</v>
+      </c>
+      <c r="D9">
+        <v>40.9683494494216</v>
+      </c>
+      <c r="E9">
+        <v>2.863</v>
+      </c>
+      <c r="F9">
+        <v>2.863</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>40.9</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-4.58</v>
+      </c>
+      <c r="L9">
+        <v>4.58</v>
+      </c>
+      <c r="M9">
+        <v>0.04638059999999999</v>
+      </c>
+      <c r="N9">
+        <v>4.5336194</v>
+      </c>
+      <c r="O9">
+        <v>0.6800429099999999</v>
+      </c>
+      <c r="P9">
+        <v>3.85357649</v>
+      </c>
+      <c r="Q9">
+        <v>-0.7264235100000001</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05648762283933244</v>
+      </c>
+      <c r="T9">
+        <v>0.7530142253239405</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.15</v>
+      </c>
+      <c r="W9">
+        <v>0.01377</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>98.74818350775972</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05347556399160407</v>
+      </c>
+      <c r="C10">
+        <v>37.70613230929469</v>
+      </c>
+      <c r="D10">
+        <v>40.97813230929469</v>
+      </c>
+      <c r="E10">
+        <v>3.272</v>
+      </c>
+      <c r="F10">
+        <v>3.272</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>40.9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>-4.58</v>
+      </c>
+      <c r="L10">
+        <v>4.58</v>
+      </c>
+      <c r="M10">
+        <v>0.0530064</v>
+      </c>
+      <c r="N10">
+        <v>4.5269936</v>
+      </c>
+      <c r="O10">
+        <v>0.67904904</v>
+      </c>
+      <c r="P10">
+        <v>3.84794456</v>
+      </c>
+      <c r="Q10">
+        <v>-0.7320554399999999</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.05692822173000442</v>
+      </c>
+      <c r="T10">
+        <v>0.7600452477059665</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.15</v>
+      </c>
+      <c r="W10">
+        <v>0.01377</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>86.40466056928976</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05345373874262895</v>
+      </c>
+      <c r="C11">
+        <v>37.30691984239515</v>
+      </c>
+      <c r="D11">
+        <v>40.98791984239515</v>
+      </c>
+      <c r="E11">
+        <v>3.681</v>
+      </c>
+      <c r="F11">
+        <v>3.681</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>40.9</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>-4.58</v>
+      </c>
+      <c r="L11">
+        <v>4.58</v>
+      </c>
+      <c r="M11">
+        <v>0.05963219999999999</v>
+      </c>
+      <c r="N11">
+        <v>4.5203678</v>
+      </c>
+      <c r="O11">
+        <v>0.6780551699999999</v>
+      </c>
+      <c r="P11">
+        <v>3.84231263</v>
+      </c>
+      <c r="Q11">
+        <v>-0.7376873700000002</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05737850411277906</v>
+      </c>
+      <c r="T11">
+        <v>0.7672307980524324</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.15</v>
+      </c>
+      <c r="W11">
+        <v>0.01377</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>76.80414272825756</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05343191349365387</v>
+      </c>
+      <c r="C12">
+        <v>36.90771205207234</v>
+      </c>
+      <c r="D12">
+        <v>40.99771205207234</v>
+      </c>
+      <c r="E12">
+        <v>4.09</v>
+      </c>
+      <c r="F12">
+        <v>4.09</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>40.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>-4.58</v>
+      </c>
+      <c r="L12">
+        <v>4.58</v>
+      </c>
+      <c r="M12">
+        <v>0.066258</v>
+      </c>
+      <c r="N12">
+        <v>4.513742</v>
+      </c>
+      <c r="O12">
+        <v>0.6770613</v>
+      </c>
+      <c r="P12">
+        <v>3.8366807</v>
+      </c>
+      <c r="Q12">
+        <v>-0.7433193000000005</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.05783879277072651</v>
+      </c>
+      <c r="T12">
+        <v>0.7745760272954868</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.15</v>
+      </c>
+      <c r="W12">
+        <v>0.01377</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>69.12372845543179</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05341008824467874</v>
+      </c>
+      <c r="C13">
+        <v>36.50850894167887</v>
+      </c>
+      <c r="D13">
+        <v>41.00750894167887</v>
+      </c>
+      <c r="E13">
+        <v>4.499</v>
+      </c>
+      <c r="F13">
+        <v>4.499</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>40.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>-4.58</v>
+      </c>
+      <c r="L13">
+        <v>4.58</v>
+      </c>
+      <c r="M13">
+        <v>0.07288379999999998</v>
+      </c>
+      <c r="N13">
+        <v>4.5071162</v>
+      </c>
+      <c r="O13">
+        <v>0.67606743</v>
+      </c>
+      <c r="P13">
+        <v>3.831048770000001</v>
+      </c>
+      <c r="Q13">
+        <v>-0.7489512299999994</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05830942499402106</v>
+      </c>
+      <c r="T13">
+        <v>0.7820863178698455</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.15</v>
+      </c>
+      <c r="W13">
+        <v>0.01377</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>62.83975314130165</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05338826299570364</v>
+      </c>
+      <c r="C14">
+        <v>36.10931051457049</v>
+      </c>
+      <c r="D14">
+        <v>41.01731051457049</v>
+      </c>
+      <c r="E14">
+        <v>4.907999999999999</v>
+      </c>
+      <c r="F14">
+        <v>4.907999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>40.9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>-4.58</v>
+      </c>
+      <c r="L14">
+        <v>4.58</v>
+      </c>
+      <c r="M14">
+        <v>0.07950959999999999</v>
+      </c>
+      <c r="N14">
+        <v>4.5004904</v>
+      </c>
+      <c r="O14">
+        <v>0.6750735600000001</v>
+      </c>
+      <c r="P14">
+        <v>3.82541684</v>
+      </c>
+      <c r="Q14">
+        <v>-0.7545831599999997</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05879075340420868</v>
+      </c>
+      <c r="T14">
+        <v>0.7897672968663488</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.15</v>
+      </c>
+      <c r="W14">
+        <v>0.01377</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>57.60310704619318</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05336643774672853</v>
+      </c>
+      <c r="C15">
+        <v>35.71011677410617</v>
+      </c>
+      <c r="D15">
+        <v>41.02711677410617</v>
+      </c>
+      <c r="E15">
+        <v>5.317</v>
+      </c>
+      <c r="F15">
+        <v>5.317</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>40.9</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>-4.58</v>
+      </c>
+      <c r="L15">
+        <v>4.58</v>
+      </c>
+      <c r="M15">
+        <v>0.0861354</v>
+      </c>
+      <c r="N15">
+        <v>4.4938646</v>
+      </c>
+      <c r="O15">
+        <v>0.67407969</v>
+      </c>
+      <c r="P15">
+        <v>3.81978491</v>
+      </c>
+      <c r="Q15">
+        <v>-0.76021509</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.05928314683532014</v>
+      </c>
+      <c r="T15">
+        <v>0.7976248500926567</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.15</v>
+      </c>
+      <c r="W15">
+        <v>0.01377</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>53.17209881187061</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05334461249775342</v>
+      </c>
+      <c r="C16">
+        <v>35.31092772364813</v>
+      </c>
+      <c r="D16">
+        <v>41.03692772364813</v>
+      </c>
+      <c r="E16">
+        <v>5.726</v>
+      </c>
+      <c r="F16">
+        <v>5.726</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>40.9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>-4.58</v>
+      </c>
+      <c r="L16">
+        <v>4.58</v>
+      </c>
+      <c r="M16">
+        <v>0.09276119999999999</v>
+      </c>
+      <c r="N16">
+        <v>4.4872388</v>
+      </c>
+      <c r="O16">
+        <v>0.6730858199999999</v>
+      </c>
+      <c r="P16">
+        <v>3.81415298</v>
+      </c>
+      <c r="Q16">
+        <v>-0.7658470199999998</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.05978699127645747</v>
+      </c>
+      <c r="T16">
+        <v>0.8056651371149254</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.15</v>
+      </c>
+      <c r="W16">
+        <v>0.01377</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>49.37409175387986</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.0533227872487783</v>
+      </c>
+      <c r="C17">
+        <v>34.91174336656177</v>
+      </c>
+      <c r="D17">
+        <v>41.04674336656177</v>
+      </c>
+      <c r="E17">
+        <v>6.135</v>
+      </c>
+      <c r="F17">
+        <v>6.135</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>40.9</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>-4.58</v>
+      </c>
+      <c r="L17">
+        <v>4.58</v>
+      </c>
+      <c r="M17">
+        <v>0.09938699999999999</v>
+      </c>
+      <c r="N17">
+        <v>4.480613</v>
+      </c>
+      <c r="O17">
+        <v>0.67209195</v>
+      </c>
+      <c r="P17">
+        <v>3.80852105</v>
+      </c>
+      <c r="Q17">
+        <v>-0.7714789500000001</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06030269088091565</v>
+      </c>
+      <c r="T17">
+        <v>0.8138946073612474</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.15</v>
+      </c>
+      <c r="W17">
+        <v>0.01377</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>46.08248563695454</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05330096199980321</v>
+      </c>
+      <c r="C18">
+        <v>34.51256370621574</v>
+      </c>
+      <c r="D18">
+        <v>41.05656370621573</v>
+      </c>
+      <c r="E18">
+        <v>6.544</v>
+      </c>
+      <c r="F18">
+        <v>6.544</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>40.9</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>-4.58</v>
+      </c>
+      <c r="L18">
+        <v>4.58</v>
+      </c>
+      <c r="M18">
+        <v>0.1060128</v>
+      </c>
+      <c r="N18">
+        <v>4.4739872</v>
+      </c>
+      <c r="O18">
+        <v>0.6710980799999999</v>
+      </c>
+      <c r="P18">
+        <v>3.80288912</v>
+      </c>
+      <c r="Q18">
+        <v>-0.7771108800000004</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06083066904738477</v>
+      </c>
+      <c r="T18">
+        <v>0.8223200173753391</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.15</v>
+      </c>
+      <c r="W18">
+        <v>0.01377</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>43.20233028464487</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05327913675082809</v>
+      </c>
+      <c r="C19">
+        <v>34.11338874598188</v>
+      </c>
+      <c r="D19">
+        <v>41.06638874598188</v>
+      </c>
+      <c r="E19">
+        <v>6.953</v>
+      </c>
+      <c r="F19">
+        <v>6.953</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>40.9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>-4.58</v>
+      </c>
+      <c r="L19">
+        <v>4.58</v>
+      </c>
+      <c r="M19">
+        <v>0.1126386</v>
+      </c>
+      <c r="N19">
+        <v>4.4673614</v>
+      </c>
+      <c r="O19">
+        <v>0.67010421</v>
+      </c>
+      <c r="P19">
+        <v>3.79725719</v>
+      </c>
+      <c r="Q19">
+        <v>-0.7827428100000002</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06137136957931096</v>
+      </c>
+      <c r="T19">
+        <v>0.830948449317481</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.15</v>
+      </c>
+      <c r="W19">
+        <v>0.01377</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>40.66101673848929</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.05325731150185299</v>
+      </c>
+      <c r="C20">
+        <v>33.7142184892353</v>
+      </c>
+      <c r="D20">
+        <v>41.0762184892353</v>
+      </c>
+      <c r="E20">
+        <v>7.361999999999999</v>
+      </c>
+      <c r="F20">
+        <v>7.361999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>40.9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>-4.58</v>
+      </c>
+      <c r="L20">
+        <v>4.58</v>
+      </c>
+      <c r="M20">
+        <v>0.1192644</v>
+      </c>
+      <c r="N20">
+        <v>4.4607356</v>
+      </c>
+      <c r="O20">
+        <v>0.66911034</v>
+      </c>
+      <c r="P20">
+        <v>3.79162526</v>
+      </c>
+      <c r="Q20">
+        <v>-0.7883747399999996</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06192525792908901</v>
+      </c>
+      <c r="T20">
+        <v>0.8397873308191874</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.15</v>
+      </c>
+      <c r="W20">
+        <v>0.01377</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>38.40207136412879</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.05323548625287789</v>
+      </c>
+      <c r="C21">
+        <v>33.31505293935431</v>
+      </c>
+      <c r="D21">
+        <v>41.08605293935431</v>
+      </c>
+      <c r="E21">
+        <v>7.771</v>
+      </c>
+      <c r="F21">
+        <v>7.771</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>40.9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>-4.58</v>
+      </c>
+      <c r="L21">
+        <v>4.58</v>
+      </c>
+      <c r="M21">
+        <v>0.1258902</v>
+      </c>
+      <c r="N21">
+        <v>4.4541098</v>
+      </c>
+      <c r="O21">
+        <v>0.6681164700000001</v>
+      </c>
+      <c r="P21">
+        <v>3.78599333</v>
+      </c>
+      <c r="Q21">
+        <v>-0.7940066699999999</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06249282253441714</v>
+      </c>
+      <c r="T21">
+        <v>0.8488444563085903</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.15</v>
+      </c>
+      <c r="W21">
+        <v>0.01377</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>36.38090971338517</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.05321366100390277</v>
+      </c>
+      <c r="C22">
+        <v>32.91589209972047</v>
+      </c>
+      <c r="D22">
+        <v>41.09589209972047</v>
+      </c>
+      <c r="E22">
+        <v>8.18</v>
+      </c>
+      <c r="F22">
+        <v>8.18</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>40.9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>-4.58</v>
+      </c>
+      <c r="L22">
+        <v>4.58</v>
+      </c>
+      <c r="M22">
+        <v>0.132516</v>
+      </c>
+      <c r="N22">
+        <v>4.447484</v>
+      </c>
+      <c r="O22">
+        <v>0.6671226</v>
+      </c>
+      <c r="P22">
+        <v>3.7803614</v>
+      </c>
+      <c r="Q22">
+        <v>-0.7996385999999998</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06307457625487846</v>
+      </c>
+      <c r="T22">
+        <v>0.8581280099352282</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.15</v>
+      </c>
+      <c r="W22">
+        <v>0.01377</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>34.5618642277159</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.05319183575492765</v>
+      </c>
+      <c r="C23">
+        <v>32.51673597371857</v>
+      </c>
+      <c r="D23">
+        <v>41.10573597371857</v>
+      </c>
+      <c r="E23">
+        <v>8.588999999999999</v>
+      </c>
+      <c r="F23">
+        <v>8.588999999999999</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>40.9</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-4.58</v>
+      </c>
+      <c r="L23">
+        <v>4.58</v>
+      </c>
+      <c r="M23">
+        <v>0.1391418</v>
+      </c>
+      <c r="N23">
+        <v>4.4408582</v>
+      </c>
+      <c r="O23">
+        <v>0.6661287299999999</v>
+      </c>
+      <c r="P23">
+        <v>3.77472947</v>
+      </c>
+      <c r="Q23">
+        <v>-0.80527053</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06367105791762995</v>
+      </c>
+      <c r="T23">
+        <v>0.8676465902359582</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.15</v>
+      </c>
+      <c r="W23">
+        <v>0.01377</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>32.91606116925324</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.05317001050595258</v>
+      </c>
+      <c r="C24">
+        <v>32.11758456473665</v>
+      </c>
+      <c r="D24">
+        <v>41.11558456473665</v>
+      </c>
+      <c r="E24">
+        <v>8.997999999999999</v>
+      </c>
+      <c r="F24">
+        <v>8.997999999999999</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>40.9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>-4.58</v>
+      </c>
+      <c r="L24">
+        <v>4.58</v>
+      </c>
+      <c r="M24">
+        <v>0.1457676</v>
+      </c>
+      <c r="N24">
+        <v>4.4342324</v>
+      </c>
+      <c r="O24">
+        <v>0.66513486</v>
+      </c>
+      <c r="P24">
+        <v>3.76909754</v>
+      </c>
+      <c r="Q24">
+        <v>-0.8109024600000003</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06428283398199047</v>
+      </c>
+      <c r="T24">
+        <v>0.8774092366982457</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.15</v>
+      </c>
+      <c r="W24">
+        <v>0.01377</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>31.41987657065082</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05314818525697745</v>
+      </c>
+      <c r="C25">
+        <v>31.71843787616601</v>
+      </c>
+      <c r="D25">
+        <v>41.12543787616601</v>
+      </c>
+      <c r="E25">
+        <v>9.407</v>
+      </c>
+      <c r="F25">
+        <v>9.407</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>40.9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>-4.58</v>
+      </c>
+      <c r="L25">
+        <v>4.58</v>
+      </c>
+      <c r="M25">
+        <v>0.1523934</v>
+      </c>
+      <c r="N25">
+        <v>4.4276066</v>
+      </c>
+      <c r="O25">
+        <v>0.6641409899999999</v>
+      </c>
+      <c r="P25">
+        <v>3.76346561</v>
+      </c>
+      <c r="Q25">
+        <v>-0.8165343900000002</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.06491050033373695</v>
+      </c>
+      <c r="T25">
+        <v>0.8874254583933194</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.15</v>
+      </c>
+      <c r="W25">
+        <v>0.01377</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>30.05379498062252</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.05312636000800234</v>
+      </c>
+      <c r="C26">
+        <v>31.31929591140119</v>
+      </c>
+      <c r="D26">
+        <v>41.13529591140119</v>
+      </c>
+      <c r="E26">
+        <v>9.815999999999999</v>
+      </c>
+      <c r="F26">
+        <v>9.815999999999999</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>40.9</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>-4.58</v>
+      </c>
+      <c r="L26">
+        <v>4.58</v>
+      </c>
+      <c r="M26">
+        <v>0.1590192</v>
+      </c>
+      <c r="N26">
+        <v>4.4209808</v>
+      </c>
+      <c r="O26">
+        <v>0.66314712</v>
+      </c>
+      <c r="P26">
+        <v>3.75783368</v>
+      </c>
+      <c r="Q26">
+        <v>-0.8221663200000005</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.06555468422105572</v>
+      </c>
+      <c r="T26">
+        <v>0.8977052648698427</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.15</v>
+      </c>
+      <c r="W26">
+        <v>0.01377</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>28.80155352309659</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.05310453475902724</v>
+      </c>
+      <c r="C27">
+        <v>30.92015867383997</v>
+      </c>
+      <c r="D27">
+        <v>41.14515867383997</v>
+      </c>
+      <c r="E27">
+        <v>10.225</v>
+      </c>
+      <c r="F27">
+        <v>10.225</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>40.9</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>-4.58</v>
+      </c>
+      <c r="L27">
+        <v>4.58</v>
+      </c>
+      <c r="M27">
+        <v>0.165645</v>
+      </c>
+      <c r="N27">
+        <v>4.414355</v>
+      </c>
+      <c r="O27">
+        <v>0.66215325</v>
+      </c>
+      <c r="P27">
+        <v>3.75220175</v>
+      </c>
+      <c r="Q27">
+        <v>-0.8277982499999998</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.06621604634536965</v>
+      </c>
+      <c r="T27">
+        <v>0.9082591995190732</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.15</v>
+      </c>
+      <c r="W27">
+        <v>0.01377</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>27.64949138217272</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.05308270951005212</v>
+      </c>
+      <c r="C28">
+        <v>30.52102616688341</v>
+      </c>
+      <c r="D28">
+        <v>41.15502616688341</v>
+      </c>
+      <c r="E28">
+        <v>10.634</v>
+      </c>
+      <c r="F28">
+        <v>10.634</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>40.9</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>-4.58</v>
+      </c>
+      <c r="L28">
+        <v>4.58</v>
+      </c>
+      <c r="M28">
+        <v>0.1722708</v>
+      </c>
+      <c r="N28">
+        <v>4.4077292</v>
+      </c>
+      <c r="O28">
+        <v>0.6611593800000001</v>
+      </c>
+      <c r="P28">
+        <v>3.74656982</v>
+      </c>
+      <c r="Q28">
+        <v>-0.8334301799999997</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.06689528312169206</v>
+      </c>
+      <c r="T28">
+        <v>0.9190983756453099</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.15</v>
+      </c>
+      <c r="W28">
+        <v>0.01377</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>26.58604940593531</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.05306088426107703</v>
+      </c>
+      <c r="C29">
+        <v>30.12189839393584</v>
+      </c>
+      <c r="D29">
+        <v>41.16489839393584</v>
+      </c>
+      <c r="E29">
+        <v>11.043</v>
+      </c>
+      <c r="F29">
+        <v>11.043</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>40.9</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>-4.58</v>
+      </c>
+      <c r="L29">
+        <v>4.58</v>
+      </c>
+      <c r="M29">
+        <v>0.1788966</v>
+      </c>
+      <c r="N29">
+        <v>4.4011034</v>
+      </c>
+      <c r="O29">
+        <v>0.66016551</v>
+      </c>
+      <c r="P29">
+        <v>3.74093789</v>
+      </c>
+      <c r="Q29">
+        <v>-0.83906211</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06759312912476305</v>
+      </c>
+      <c r="T29">
+        <v>0.9302345155010328</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.15</v>
+      </c>
+      <c r="W29">
+        <v>0.01377</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>25.60138090941918</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.05303905901210192</v>
+      </c>
+      <c r="C30">
+        <v>29.72277535840483</v>
+      </c>
+      <c r="D30">
+        <v>41.17477535840483</v>
+      </c>
+      <c r="E30">
+        <v>11.452</v>
+      </c>
+      <c r="F30">
+        <v>11.452</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>40.9</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>-4.58</v>
+      </c>
+      <c r="L30">
+        <v>4.58</v>
+      </c>
+      <c r="M30">
+        <v>0.1855224</v>
+      </c>
+      <c r="N30">
+        <v>4.3944776</v>
+      </c>
+      <c r="O30">
+        <v>0.6591716399999999</v>
+      </c>
+      <c r="P30">
+        <v>3.73530596</v>
+      </c>
+      <c r="Q30">
+        <v>-0.8446940399999998</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.06831035973903045</v>
+      </c>
+      <c r="T30">
+        <v>0.94167999257497</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.15</v>
+      </c>
+      <c r="W30">
+        <v>0.01377</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>24.68704587693993</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.0530172337631268</v>
+      </c>
+      <c r="C31">
+        <v>29.32365706370125</v>
+      </c>
+      <c r="D31">
+        <v>41.18465706370125</v>
+      </c>
+      <c r="E31">
+        <v>11.861</v>
+      </c>
+      <c r="F31">
+        <v>11.861</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>40.9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>-4.58</v>
+      </c>
+      <c r="L31">
+        <v>4.58</v>
+      </c>
+      <c r="M31">
+        <v>0.1921482</v>
+      </c>
+      <c r="N31">
+        <v>4.3878518</v>
+      </c>
+      <c r="O31">
+        <v>0.65817777</v>
+      </c>
+      <c r="P31">
+        <v>3.72967403</v>
+      </c>
+      <c r="Q31">
+        <v>-0.8503259700000001</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.06904779403257297</v>
+      </c>
+      <c r="T31">
+        <v>0.9534478774538068</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.15</v>
+      </c>
+      <c r="W31">
+        <v>0.01377</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>23.83576843290752</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.0529954085141517</v>
+      </c>
+      <c r="C32">
+        <v>28.92454351323923</v>
+      </c>
+      <c r="D32">
+        <v>41.19454351323922</v>
+      </c>
+      <c r="E32">
+        <v>12.27</v>
+      </c>
+      <c r="F32">
+        <v>12.27</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>40.9</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>-4.58</v>
+      </c>
+      <c r="L32">
+        <v>4.58</v>
+      </c>
+      <c r="M32">
+        <v>0.198774</v>
+      </c>
+      <c r="N32">
+        <v>4.381226</v>
+      </c>
+      <c r="O32">
+        <v>0.6571838999999999</v>
+      </c>
+      <c r="P32">
+        <v>3.7240421</v>
+      </c>
+      <c r="Q32">
+        <v>-0.8559578999999999</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.06980629787735958</v>
+      </c>
+      <c r="T32">
+        <v>0.965551987614896</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.15</v>
+      </c>
+      <c r="W32">
+        <v>0.01377</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>23.04124281847727</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.05297358326517659</v>
+      </c>
+      <c r="C33">
+        <v>28.52543471043617</v>
+      </c>
+      <c r="D33">
+        <v>41.20443471043617</v>
+      </c>
+      <c r="E33">
+        <v>12.679</v>
+      </c>
+      <c r="F33">
+        <v>12.679</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>40.9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>-4.58</v>
+      </c>
+      <c r="L33">
+        <v>4.58</v>
+      </c>
+      <c r="M33">
+        <v>0.2053998</v>
+      </c>
+      <c r="N33">
+        <v>4.3746002</v>
+      </c>
+      <c r="O33">
+        <v>0.65619003</v>
+      </c>
+      <c r="P33">
+        <v>3.71841017</v>
+      </c>
+      <c r="Q33">
+        <v>-0.8615898300000002</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07058678734083565</v>
+      </c>
+      <c r="T33">
+        <v>0.9780069415487707</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.15</v>
+      </c>
+      <c r="W33">
+        <v>0.01377</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>22.29797692110703</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.05295175801620148</v>
+      </c>
+      <c r="C34">
+        <v>28.12633065871277</v>
+      </c>
+      <c r="D34">
+        <v>41.21433065871278</v>
+      </c>
+      <c r="E34">
+        <v>13.088</v>
+      </c>
+      <c r="F34">
+        <v>13.088</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>40.9</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>-4.58</v>
+      </c>
+      <c r="L34">
+        <v>4.58</v>
+      </c>
+      <c r="M34">
+        <v>0.2120256</v>
+      </c>
+      <c r="N34">
+        <v>4.3679744</v>
+      </c>
+      <c r="O34">
+        <v>0.65519616</v>
+      </c>
+      <c r="P34">
+        <v>3.71277824</v>
+      </c>
+      <c r="Q34">
+        <v>-0.8672217599999996</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07139023237676689</v>
+      </c>
+      <c r="T34">
+        <v>0.9908282176571708</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.15</v>
+      </c>
+      <c r="W34">
+        <v>0.01377</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>21.60116514232244</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.05292993276722638</v>
+      </c>
+      <c r="C35">
+        <v>27.72723136149302</v>
+      </c>
+      <c r="D35">
+        <v>41.22423136149302</v>
+      </c>
+      <c r="E35">
+        <v>13.497</v>
+      </c>
+      <c r="F35">
+        <v>13.497</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>40.9</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>-4.58</v>
+      </c>
+      <c r="L35">
+        <v>4.58</v>
+      </c>
+      <c r="M35">
+        <v>0.2186514</v>
+      </c>
+      <c r="N35">
+        <v>4.3613486</v>
+      </c>
+      <c r="O35">
+        <v>0.6542022900000001</v>
+      </c>
+      <c r="P35">
+        <v>3.70714631</v>
+      </c>
+      <c r="Q35">
+        <v>-0.8728536899999999</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07221766084660654</v>
+      </c>
+      <c r="T35">
+        <v>1.004032218425523</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.15</v>
+      </c>
+      <c r="W35">
+        <v>0.01377</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>20.94658438043388</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.05290810751825127</v>
+      </c>
+      <c r="C36">
+        <v>27.32813682220419</v>
+      </c>
+      <c r="D36">
+        <v>41.23413682220419</v>
+      </c>
+      <c r="E36">
+        <v>13.906</v>
+      </c>
+      <c r="F36">
+        <v>13.906</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>40.9</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>-4.58</v>
+      </c>
+      <c r="L36">
+        <v>4.58</v>
+      </c>
+      <c r="M36">
+        <v>0.2252772</v>
+      </c>
+      <c r="N36">
+        <v>4.3547228</v>
+      </c>
+      <c r="O36">
+        <v>0.65320842</v>
+      </c>
+      <c r="P36">
+        <v>3.70151438</v>
+      </c>
+      <c r="Q36">
+        <v>-0.8784856199999997</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07307016290644133</v>
+      </c>
+      <c r="T36">
+        <v>1.017636340429281</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.15</v>
+      </c>
+      <c r="W36">
+        <v>0.01377</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>20.33050836924465</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.05288628226927616</v>
+      </c>
+      <c r="C37">
+        <v>26.92904704427682</v>
+      </c>
+      <c r="D37">
+        <v>41.24404704427682</v>
+      </c>
+      <c r="E37">
+        <v>14.315</v>
+      </c>
+      <c r="F37">
+        <v>14.315</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>40.9</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>-4.58</v>
+      </c>
+      <c r="L37">
+        <v>4.58</v>
+      </c>
+      <c r="M37">
+        <v>0.231903</v>
+      </c>
+      <c r="N37">
+        <v>4.348097</v>
+      </c>
+      <c r="O37">
+        <v>0.6522145499999999</v>
+      </c>
+      <c r="P37">
+        <v>3.69588245</v>
+      </c>
+      <c r="Q37">
+        <v>-0.88411755</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07394889579888642</v>
+      </c>
+      <c r="T37">
+        <v>1.031659050802384</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.15</v>
+      </c>
+      <c r="W37">
+        <v>0.01377</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>19.74963670155194</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.05286445702030106</v>
+      </c>
+      <c r="C38">
+        <v>26.52996203114481</v>
+      </c>
+      <c r="D38">
+        <v>41.25396203114481</v>
+      </c>
+      <c r="E38">
+        <v>14.724</v>
+      </c>
+      <c r="F38">
+        <v>14.724</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>40.9</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>-4.58</v>
+      </c>
+      <c r="L38">
+        <v>4.58</v>
+      </c>
+      <c r="M38">
+        <v>0.2385288</v>
+      </c>
+      <c r="N38">
+        <v>4.3414712</v>
+      </c>
+      <c r="O38">
+        <v>0.65122068</v>
+      </c>
+      <c r="P38">
+        <v>3.69025052</v>
+      </c>
+      <c r="Q38">
+        <v>-0.8897494799999999</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.0748550890942204</v>
+      </c>
+      <c r="T38">
+        <v>1.046119970874647</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.15</v>
+      </c>
+      <c r="W38">
+        <v>0.01377</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>19.20103568206439</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.05284263177132596</v>
+      </c>
+      <c r="C39">
+        <v>26.1308817862453</v>
+      </c>
+      <c r="D39">
+        <v>41.2638817862453</v>
+      </c>
+      <c r="E39">
+        <v>15.133</v>
+      </c>
+      <c r="F39">
+        <v>15.133</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>40.9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>-4.58</v>
+      </c>
+      <c r="L39">
+        <v>4.58</v>
+      </c>
+      <c r="M39">
+        <v>0.2451546</v>
+      </c>
+      <c r="N39">
+        <v>4.3348454</v>
+      </c>
+      <c r="O39">
+        <v>0.6502268099999999</v>
+      </c>
+      <c r="P39">
+        <v>3.68461859</v>
+      </c>
+      <c r="Q39">
+        <v>-0.8953814100000002</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.07579005043067612</v>
+      </c>
+      <c r="T39">
+        <v>1.061039967774601</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.15</v>
+      </c>
+      <c r="W39">
+        <v>0.01377</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>18.68208877173833</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.05282080652235084</v>
+      </c>
+      <c r="C40">
+        <v>25.73180631301879</v>
+      </c>
+      <c r="D40">
+        <v>41.2738063130188</v>
+      </c>
+      <c r="E40">
+        <v>15.542</v>
+      </c>
+      <c r="F40">
+        <v>15.542</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>40.9</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>-4.58</v>
+      </c>
+      <c r="L40">
+        <v>4.58</v>
+      </c>
+      <c r="M40">
+        <v>0.2517804</v>
+      </c>
+      <c r="N40">
+        <v>4.3282196</v>
+      </c>
+      <c r="O40">
+        <v>0.64923294</v>
+      </c>
+      <c r="P40">
+        <v>3.67898666</v>
+      </c>
+      <c r="Q40">
+        <v>-0.9010133400000004</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.0767551718102433</v>
+      </c>
+      <c r="T40">
+        <v>1.076441254897134</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.15</v>
+      </c>
+      <c r="W40">
+        <v>0.01377</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>18.19045485669258</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.05279898127337573</v>
+      </c>
+      <c r="C41">
+        <v>25.33273561490907</v>
+      </c>
+      <c r="D41">
+        <v>41.28373561490907</v>
+      </c>
+      <c r="E41">
+        <v>15.951</v>
+      </c>
+      <c r="F41">
+        <v>15.951</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>40.9</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>-4.58</v>
+      </c>
+      <c r="L41">
+        <v>4.58</v>
+      </c>
+      <c r="M41">
+        <v>0.2584062</v>
+      </c>
+      <c r="N41">
+        <v>4.3215938</v>
+      </c>
+      <c r="O41">
+        <v>0.64823907</v>
+      </c>
+      <c r="P41">
+        <v>3.673354730000001</v>
+      </c>
+      <c r="Q41">
+        <v>-0.9066452699999994</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.0777519365137307</v>
+      </c>
+      <c r="T41">
+        <v>1.092347502253192</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.15</v>
+      </c>
+      <c r="W41">
+        <v>0.01377</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>17.72403293729021</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.05277715602440063</v>
+      </c>
+      <c r="C42">
+        <v>24.93366969536321</v>
+      </c>
+      <c r="D42">
+        <v>41.29366969536321</v>
+      </c>
+      <c r="E42">
+        <v>16.36</v>
+      </c>
+      <c r="F42">
+        <v>16.36</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>40.9</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>-4.58</v>
+      </c>
+      <c r="L42">
+        <v>4.58</v>
+      </c>
+      <c r="M42">
+        <v>0.265032</v>
+      </c>
+      <c r="N42">
+        <v>4.314968</v>
+      </c>
+      <c r="O42">
+        <v>0.6472452000000001</v>
+      </c>
+      <c r="P42">
+        <v>3.6677228</v>
+      </c>
+      <c r="Q42">
+        <v>-0.9122771999999997</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.07878192670733439</v>
+      </c>
+      <c r="T42">
+        <v>1.108783957854453</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.15</v>
+      </c>
+      <c r="W42">
+        <v>0.01377</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>17.28093211385795</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.05275533077542552</v>
+      </c>
+      <c r="C43">
+        <v>24.53460855783164</v>
+      </c>
+      <c r="D43">
+        <v>41.30360855783164</v>
+      </c>
+      <c r="E43">
+        <v>16.769</v>
+      </c>
+      <c r="F43">
+        <v>16.769</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>40.9</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>-4.58</v>
+      </c>
+      <c r="L43">
+        <v>4.58</v>
+      </c>
+      <c r="M43">
+        <v>0.2716578</v>
+      </c>
+      <c r="N43">
+        <v>4.3083422</v>
+      </c>
+      <c r="O43">
+        <v>0.64625133</v>
+      </c>
+      <c r="P43">
+        <v>3.66209087</v>
+      </c>
+      <c r="Q43">
+        <v>-0.91790913</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.07984683182275512</v>
+      </c>
+      <c r="T43">
+        <v>1.125777581442197</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.15</v>
+      </c>
+      <c r="W43">
+        <v>0.01377</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>16.85944596473946</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.05273350552645042</v>
+      </c>
+      <c r="C44">
+        <v>24.13555220576811</v>
+      </c>
+      <c r="D44">
+        <v>41.31355220576811</v>
+      </c>
+      <c r="E44">
+        <v>17.178</v>
+      </c>
+      <c r="F44">
+        <v>17.178</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>40.9</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>-4.58</v>
+      </c>
+      <c r="L44">
+        <v>4.58</v>
+      </c>
+      <c r="M44">
+        <v>0.2782836</v>
+      </c>
+      <c r="N44">
+        <v>4.3017164</v>
+      </c>
+      <c r="O44">
+        <v>0.6452574599999999</v>
+      </c>
+      <c r="P44">
+        <v>3.65645894</v>
+      </c>
+      <c r="Q44">
+        <v>-0.9235410599999998</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08094845780422485</v>
+      </c>
+      <c r="T44">
+        <v>1.143357192050208</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.15</v>
+      </c>
+      <c r="W44">
+        <v>0.01377</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>16.45803058462662</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.0527116802774753</v>
+      </c>
+      <c r="C45">
+        <v>23.7365006426297</v>
+      </c>
+      <c r="D45">
+        <v>41.3235006426297</v>
+      </c>
+      <c r="E45">
+        <v>17.587</v>
+      </c>
+      <c r="F45">
+        <v>17.587</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>40.9</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>-4.58</v>
+      </c>
+      <c r="L45">
+        <v>4.58</v>
+      </c>
+      <c r="M45">
+        <v>0.2849094</v>
+      </c>
+      <c r="N45">
+        <v>4.2950906</v>
+      </c>
+      <c r="O45">
+        <v>0.64426359</v>
+      </c>
+      <c r="P45">
+        <v>3.65082701</v>
+      </c>
+      <c r="Q45">
+        <v>-0.9291729900000001</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08208873732890404</v>
+      </c>
+      <c r="T45">
+        <v>1.161553631100606</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.15</v>
+      </c>
+      <c r="W45">
+        <v>0.01377</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>16.07528568730972</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.05268985502850021</v>
+      </c>
+      <c r="C46">
+        <v>23.33745387187678</v>
+      </c>
+      <c r="D46">
+        <v>41.33345387187678</v>
+      </c>
+      <c r="E46">
+        <v>17.996</v>
+      </c>
+      <c r="F46">
+        <v>17.996</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>40.9</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>-4.58</v>
+      </c>
+      <c r="L46">
+        <v>4.58</v>
+      </c>
+      <c r="M46">
+        <v>0.2915351999999999</v>
+      </c>
+      <c r="N46">
+        <v>4.2884648</v>
+      </c>
+      <c r="O46">
+        <v>0.6432697199999999</v>
+      </c>
+      <c r="P46">
+        <v>3.64519508</v>
+      </c>
+      <c r="Q46">
+        <v>-0.9348049200000004</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.08326974112232179</v>
+      </c>
+      <c r="T46">
+        <v>1.180399942974232</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.15</v>
+      </c>
+      <c r="W46">
+        <v>0.01377</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>15.70993828532541</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.05266802977952509</v>
+      </c>
+      <c r="C47">
+        <v>22.9384118969731</v>
+      </c>
+      <c r="D47">
+        <v>41.3434118969731</v>
+      </c>
+      <c r="E47">
+        <v>18.405</v>
+      </c>
+      <c r="F47">
+        <v>18.405</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>40.9</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>-4.58</v>
+      </c>
+      <c r="L47">
+        <v>4.58</v>
+      </c>
+      <c r="M47">
+        <v>0.298161</v>
+      </c>
+      <c r="N47">
+        <v>4.281839</v>
+      </c>
+      <c r="O47">
+        <v>0.64227585</v>
+      </c>
+      <c r="P47">
+        <v>3.63956315</v>
+      </c>
+      <c r="Q47">
+        <v>-0.9404368500000002</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.08449369050822743</v>
+      </c>
+      <c r="T47">
+        <v>1.199931575279626</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.15</v>
+      </c>
+      <c r="W47">
+        <v>0.01377</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>15.36082854565151</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.05264620453054998</v>
+      </c>
+      <c r="C48">
+        <v>22.53937472138573</v>
+      </c>
+      <c r="D48">
+        <v>41.35337472138573</v>
+      </c>
+      <c r="E48">
+        <v>18.814</v>
+      </c>
+      <c r="F48">
+        <v>18.814</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>40.9</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>-4.58</v>
+      </c>
+      <c r="L48">
+        <v>4.58</v>
+      </c>
+      <c r="M48">
+        <v>0.3047868</v>
+      </c>
+      <c r="N48">
+        <v>4.2752132</v>
+      </c>
+      <c r="O48">
+        <v>0.64128198</v>
+      </c>
+      <c r="P48">
+        <v>3.63393122</v>
+      </c>
+      <c r="Q48">
+        <v>-0.9460687799999996</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.08576297135287034</v>
+      </c>
+      <c r="T48">
+        <v>1.220186601374109</v>
+      </c>
+      <c r="U48">
+        <v>0.0162</v>
+      </c>
+      <c r="V48">
+        <v>0.15</v>
+      </c>
+      <c r="W48">
+        <v>0.01377</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>15.02689749031126</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.05262437928157488</v>
+      </c>
+      <c r="C49">
+        <v>22.14034234858509</v>
+      </c>
+      <c r="D49">
+        <v>41.36334234858509</v>
+      </c>
+      <c r="E49">
+        <v>19.223</v>
+      </c>
+      <c r="F49">
+        <v>19.223</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>40.9</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>-4.58</v>
+      </c>
+      <c r="L49">
+        <v>4.58</v>
+      </c>
+      <c r="M49">
+        <v>0.3114126</v>
+      </c>
+      <c r="N49">
+        <v>4.2685874</v>
+      </c>
+      <c r="O49">
+        <v>0.6402881100000001</v>
+      </c>
+      <c r="P49">
+        <v>3.62829929</v>
+      </c>
+      <c r="Q49">
+        <v>-0.9517007099999999</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.08708014958787712</v>
+      </c>
+      <c r="T49">
+        <v>1.24120596807593</v>
+      </c>
+      <c r="U49">
+        <v>0.0162</v>
+      </c>
+      <c r="V49">
+        <v>0.15</v>
+      </c>
+      <c r="W49">
+        <v>0.01377</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>14.70717626711315</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.05260255403259977</v>
+      </c>
+      <c r="C50">
+        <v>21.74131478204494</v>
+      </c>
+      <c r="D50">
+        <v>41.37331478204494</v>
+      </c>
+      <c r="E50">
+        <v>19.632</v>
+      </c>
+      <c r="F50">
+        <v>19.632</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>40.9</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>-4.58</v>
+      </c>
+      <c r="L50">
+        <v>4.58</v>
+      </c>
+      <c r="M50">
+        <v>0.3180383999999999</v>
+      </c>
+      <c r="N50">
+        <v>4.2619616</v>
+      </c>
+      <c r="O50">
+        <v>0.63929424</v>
+      </c>
+      <c r="P50">
+        <v>3.62266736</v>
+      </c>
+      <c r="Q50">
+        <v>-0.9573326399999997</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.08844798852423033</v>
+      </c>
+      <c r="T50">
+        <v>1.263033771958591</v>
+      </c>
+      <c r="U50">
+        <v>0.0162</v>
+      </c>
+      <c r="V50">
+        <v>0.15</v>
+      </c>
+      <c r="W50">
+        <v>0.01377</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>14.40077676154829</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.05258072878362466</v>
+      </c>
+      <c r="C51">
+        <v>21.34229202524238</v>
+      </c>
+      <c r="D51">
+        <v>41.38329202524238</v>
+      </c>
+      <c r="E51">
+        <v>20.041</v>
+      </c>
+      <c r="F51">
+        <v>20.041</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>40.9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>-4.58</v>
+      </c>
+      <c r="L51">
+        <v>4.58</v>
+      </c>
+      <c r="M51">
+        <v>0.3246642</v>
+      </c>
+      <c r="N51">
+        <v>4.2553358</v>
+      </c>
+      <c r="O51">
+        <v>0.63830037</v>
+      </c>
+      <c r="P51">
+        <v>3.61703543</v>
+      </c>
+      <c r="Q51">
+        <v>-0.96296457</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.0898694682031856</v>
+      </c>
+      <c r="T51">
+        <v>1.285717568150376</v>
+      </c>
+      <c r="U51">
+        <v>0.0162</v>
+      </c>
+      <c r="V51">
+        <v>0.15</v>
+      </c>
+      <c r="W51">
+        <v>0.01377</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>14.10688335825139</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.05255890353464956</v>
+      </c>
+      <c r="C52">
+        <v>20.9432740816579</v>
+      </c>
+      <c r="D52">
+        <v>41.3932740816579</v>
+      </c>
+      <c r="E52">
+        <v>20.45</v>
+      </c>
+      <c r="F52">
+        <v>20.45</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>40.9</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>-4.58</v>
+      </c>
+      <c r="L52">
+        <v>4.58</v>
+      </c>
+      <c r="M52">
+        <v>0.33129</v>
+      </c>
+      <c r="N52">
+        <v>4.24871</v>
+      </c>
+      <c r="O52">
+        <v>0.6373065</v>
+      </c>
+      <c r="P52">
+        <v>3.6114035</v>
+      </c>
+      <c r="Q52">
+        <v>-0.9685965000000003</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.09134780706929911</v>
+      </c>
+      <c r="T52">
+        <v>1.309308716189833</v>
+      </c>
+      <c r="U52">
+        <v>0.0162</v>
+      </c>
+      <c r="V52">
+        <v>0.15</v>
+      </c>
+      <c r="W52">
+        <v>0.01377</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>13.82474569108636</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.05323067828567445</v>
+      </c>
+      <c r="C53">
+        <v>20.22922004081247</v>
+      </c>
+      <c r="D53">
+        <v>41.08822004081247</v>
+      </c>
+      <c r="E53">
+        <v>20.859</v>
+      </c>
+      <c r="F53">
+        <v>20.859</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>40.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>-4.58</v>
+      </c>
+      <c r="L53">
+        <v>4.58</v>
+      </c>
+      <c r="M53">
+        <v>0.3712902</v>
+      </c>
+      <c r="N53">
+        <v>4.2087098</v>
+      </c>
+      <c r="O53">
+        <v>0.6313064700000001</v>
+      </c>
+      <c r="P53">
+        <v>3.57740333</v>
+      </c>
+      <c r="Q53">
+        <v>-1.00259667</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.09288648629729479</v>
+      </c>
+      <c r="T53">
+        <v>1.3338627682309</v>
+      </c>
+      <c r="U53">
+        <v>0.0178</v>
+      </c>
+      <c r="V53">
+        <v>0.15</v>
+      </c>
+      <c r="W53">
+        <v>0.01513</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>12.33536462853046</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.05322245303669935</v>
+      </c>
+      <c r="C54">
+        <v>19.82392794836101</v>
+      </c>
+      <c r="D54">
+        <v>41.09192794836101</v>
+      </c>
+      <c r="E54">
+        <v>21.268</v>
+      </c>
+      <c r="F54">
+        <v>21.268</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>40.9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>-4.58</v>
+      </c>
+      <c r="L54">
+        <v>4.58</v>
+      </c>
+      <c r="M54">
+        <v>0.3785704</v>
+      </c>
+      <c r="N54">
+        <v>4.2014296</v>
+      </c>
+      <c r="O54">
+        <v>0.6302144399999999</v>
+      </c>
+      <c r="P54">
+        <v>3.57121516</v>
+      </c>
+      <c r="Q54">
+        <v>-1.00878484</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.0944892771597903</v>
+      </c>
+      <c r="T54">
+        <v>1.359439905773678</v>
+      </c>
+      <c r="U54">
+        <v>0.0178</v>
+      </c>
+      <c r="V54">
+        <v>0.15</v>
+      </c>
+      <c r="W54">
+        <v>0.01513</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>12.0981460779818</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.05321422778772423</v>
+      </c>
+      <c r="C55">
+        <v>19.41863652519234</v>
+      </c>
+      <c r="D55">
+        <v>41.09563652519234</v>
+      </c>
+      <c r="E55">
+        <v>21.677</v>
+      </c>
+      <c r="F55">
+        <v>21.677</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>40.9</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>-4.58</v>
+      </c>
+      <c r="L55">
+        <v>4.58</v>
+      </c>
+      <c r="M55">
+        <v>0.3858506</v>
+      </c>
+      <c r="N55">
+        <v>4.1941494</v>
+      </c>
+      <c r="O55">
+        <v>0.6291224099999999</v>
+      </c>
+      <c r="P55">
+        <v>3.56502699</v>
+      </c>
+      <c r="Q55">
+        <v>-1.01497301</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.09616027188877496</v>
+      </c>
+      <c r="T55">
+        <v>1.386105432148063</v>
+      </c>
+      <c r="U55">
+        <v>0.0178</v>
+      </c>
+      <c r="V55">
+        <v>0.15</v>
+      </c>
+      <c r="W55">
+        <v>0.01513</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>11.86987917085006</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.05320600253874913</v>
+      </c>
+      <c r="C56">
+        <v>19.01334577148767</v>
+      </c>
+      <c r="D56">
+        <v>41.09934577148768</v>
+      </c>
+      <c r="E56">
+        <v>22.086</v>
+      </c>
+      <c r="F56">
+        <v>22.086</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>40.9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>-4.58</v>
+      </c>
+      <c r="L56">
+        <v>4.58</v>
+      </c>
+      <c r="M56">
+        <v>0.3931308000000001</v>
+      </c>
+      <c r="N56">
+        <v>4.1868692</v>
+      </c>
+      <c r="O56">
+        <v>0.62803038</v>
+      </c>
+      <c r="P56">
+        <v>3.55883882</v>
+      </c>
+      <c r="Q56">
+        <v>-1.02116118</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.09790391856249811</v>
+      </c>
+      <c r="T56">
+        <v>1.413930329234379</v>
+      </c>
+      <c r="U56">
+        <v>0.0178</v>
+      </c>
+      <c r="V56">
+        <v>0.15</v>
+      </c>
+      <c r="W56">
+        <v>0.01513</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>11.6500665936121</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.05319777728977403</v>
+      </c>
+      <c r="C57">
+        <v>18.60805568742833</v>
+      </c>
+      <c r="D57">
+        <v>41.10305568742833</v>
+      </c>
+      <c r="E57">
+        <v>22.495</v>
+      </c>
+      <c r="F57">
+        <v>22.495</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>40.9</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>-4.58</v>
+      </c>
+      <c r="L57">
+        <v>4.58</v>
+      </c>
+      <c r="M57">
+        <v>0.400411</v>
+      </c>
+      <c r="N57">
+        <v>4.179589</v>
+      </c>
+      <c r="O57">
+        <v>0.62693835</v>
+      </c>
+      <c r="P57">
+        <v>3.55265065</v>
+      </c>
+      <c r="Q57">
+        <v>-1.02734935</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.09972506064394228</v>
+      </c>
+      <c r="T57">
+        <v>1.44299188841342</v>
+      </c>
+      <c r="U57">
+        <v>0.0178</v>
+      </c>
+      <c r="V57">
+        <v>0.15</v>
+      </c>
+      <c r="W57">
+        <v>0.01513</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>11.43824720100097</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.05318955204079891</v>
+      </c>
+      <c r="C58">
+        <v>18.20276627319565</v>
+      </c>
+      <c r="D58">
+        <v>41.10676627319565</v>
+      </c>
+      <c r="E58">
+        <v>22.904</v>
+      </c>
+      <c r="F58">
+        <v>22.904</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>40.9</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>-4.58</v>
+      </c>
+      <c r="L58">
+        <v>4.58</v>
+      </c>
+      <c r="M58">
+        <v>0.4076912</v>
+      </c>
+      <c r="N58">
+        <v>4.1723088</v>
+      </c>
+      <c r="O58">
+        <v>0.62584632</v>
+      </c>
+      <c r="P58">
+        <v>3.54646248</v>
+      </c>
+      <c r="Q58">
+        <v>-1.03353752</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1016289819109066</v>
+      </c>
+      <c r="T58">
+        <v>1.473374427555144</v>
+      </c>
+      <c r="U58">
+        <v>0.0178</v>
+      </c>
+      <c r="V58">
+        <v>0.15</v>
+      </c>
+      <c r="W58">
+        <v>0.01513</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>11.23399278669738</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.0531813267918238</v>
+      </c>
+      <c r="C59">
+        <v>17.79747752897103</v>
+      </c>
+      <c r="D59">
+        <v>41.11047752897103</v>
+      </c>
+      <c r="E59">
+        <v>23.313</v>
+      </c>
+      <c r="F59">
+        <v>23.313</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>40.9</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>-4.58</v>
+      </c>
+      <c r="L59">
+        <v>4.58</v>
+      </c>
+      <c r="M59">
+        <v>0.4149714</v>
+      </c>
+      <c r="N59">
+        <v>4.1650286</v>
+      </c>
+      <c r="O59">
+        <v>0.62475429</v>
+      </c>
+      <c r="P59">
+        <v>3.54027431</v>
+      </c>
+      <c r="Q59">
+        <v>-1.03972569</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1036214576554042</v>
+      </c>
+      <c r="T59">
+        <v>1.505170108052297</v>
+      </c>
+      <c r="U59">
+        <v>0.0178</v>
+      </c>
+      <c r="V59">
+        <v>0.15</v>
+      </c>
+      <c r="W59">
+        <v>0.01513</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>11.03690519394831</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.0531731015428487</v>
+      </c>
+      <c r="C60">
+        <v>17.392189454936</v>
+      </c>
+      <c r="D60">
+        <v>41.114189454936</v>
+      </c>
+      <c r="E60">
+        <v>23.722</v>
+      </c>
+      <c r="F60">
+        <v>23.722</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>40.9</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>-4.58</v>
+      </c>
+      <c r="L60">
+        <v>4.58</v>
+      </c>
+      <c r="M60">
+        <v>0.4222515999999999</v>
+      </c>
+      <c r="N60">
+        <v>4.1577484</v>
+      </c>
+      <c r="O60">
+        <v>0.62366226</v>
+      </c>
+      <c r="P60">
+        <v>3.53408614</v>
+      </c>
+      <c r="Q60">
+        <v>-1.04591386</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1057088131972588</v>
+      </c>
+      <c r="T60">
+        <v>1.538479868573124</v>
+      </c>
+      <c r="U60">
+        <v>0.0178</v>
+      </c>
+      <c r="V60">
+        <v>0.15</v>
+      </c>
+      <c r="W60">
+        <v>0.01513</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>10.84661372508713</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.05426817629387358</v>
+      </c>
+      <c r="C61">
+        <v>16.49482539602579</v>
+      </c>
+      <c r="D61">
+        <v>40.62582539602578</v>
+      </c>
+      <c r="E61">
+        <v>24.131</v>
+      </c>
+      <c r="F61">
+        <v>24.131</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>40.9</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>-4.58</v>
+      </c>
+      <c r="L61">
+        <v>4.58</v>
+      </c>
+      <c r="M61">
+        <v>0.4826199999999999</v>
+      </c>
+      <c r="N61">
+        <v>4.09738</v>
+      </c>
+      <c r="O61">
+        <v>0.614607</v>
+      </c>
+      <c r="P61">
+        <v>3.482773</v>
+      </c>
+      <c r="Q61">
+        <v>-1.097227</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1078979909606673</v>
+      </c>
+      <c r="T61">
+        <v>1.573414495460821</v>
+      </c>
+      <c r="U61">
+        <v>0.02</v>
+      </c>
+      <c r="V61">
+        <v>0.15</v>
+      </c>
+      <c r="W61">
+        <v>0.017</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>9.489867804898266</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.05427865104489847</v>
+      </c>
+      <c r="C62">
+        <v>16.08121004474446</v>
+      </c>
+      <c r="D62">
+        <v>40.62121004474446</v>
+      </c>
+      <c r="E62">
+        <v>24.54</v>
+      </c>
+      <c r="F62">
+        <v>24.54</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>40.9</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>-4.58</v>
+      </c>
+      <c r="L62">
+        <v>4.58</v>
+      </c>
+      <c r="M62">
+        <v>0.4907999999999999</v>
+      </c>
+      <c r="N62">
+        <v>4.0892</v>
+      </c>
+      <c r="O62">
+        <v>0.6133799999999999</v>
+      </c>
+      <c r="P62">
+        <v>3.47582</v>
+      </c>
+      <c r="Q62">
+        <v>-1.10418</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1101966276122462</v>
+      </c>
+      <c r="T62">
+        <v>1.610095853692902</v>
+      </c>
+      <c r="U62">
+        <v>0.02</v>
+      </c>
+      <c r="V62">
+        <v>0.15</v>
+      </c>
+      <c r="W62">
+        <v>0.017</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>9.331703341483294</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.05428912579592337</v>
+      </c>
+      <c r="C63">
+        <v>15.66759574201033</v>
+      </c>
+      <c r="D63">
+        <v>40.61659574201033</v>
+      </c>
+      <c r="E63">
+        <v>24.949</v>
+      </c>
+      <c r="F63">
+        <v>24.949</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>40.9</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>-4.58</v>
+      </c>
+      <c r="L63">
+        <v>4.58</v>
+      </c>
+      <c r="M63">
+        <v>0.4989799999999999</v>
+      </c>
+      <c r="N63">
+        <v>4.081020000000001</v>
+      </c>
+      <c r="O63">
+        <v>0.6121530000000001</v>
+      </c>
+      <c r="P63">
+        <v>3.468867</v>
+      </c>
+      <c r="Q63">
+        <v>-1.111133</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1126131430664702</v>
+      </c>
+      <c r="T63">
+        <v>1.648658307218937</v>
+      </c>
+      <c r="U63">
+        <v>0.02</v>
+      </c>
+      <c r="V63">
+        <v>0.15</v>
+      </c>
+      <c r="W63">
+        <v>0.017</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>9.178724598180292</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.05429960054694827</v>
+      </c>
+      <c r="C64">
+        <v>15.25398248746611</v>
+      </c>
+      <c r="D64">
+        <v>40.61198248746611</v>
+      </c>
+      <c r="E64">
+        <v>25.358</v>
+      </c>
+      <c r="F64">
+        <v>25.358</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>40.9</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>-4.58</v>
+      </c>
+      <c r="L64">
+        <v>4.58</v>
+      </c>
+      <c r="M64">
+        <v>0.5071599999999999</v>
+      </c>
+      <c r="N64">
+        <v>4.07284</v>
+      </c>
+      <c r="O64">
+        <v>0.610926</v>
+      </c>
+      <c r="P64">
+        <v>3.461914</v>
+      </c>
+      <c r="Q64">
+        <v>-1.118086</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1151568435446007</v>
+      </c>
+      <c r="T64">
+        <v>1.689250363562131</v>
+      </c>
+      <c r="U64">
+        <v>0.02</v>
+      </c>
+      <c r="V64">
+        <v>0.15</v>
+      </c>
+      <c r="W64">
+        <v>0.017</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>9.03068065304835</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.05431007529797315</v>
+      </c>
+      <c r="C65">
+        <v>14.8403702807547</v>
+      </c>
+      <c r="D65">
+        <v>40.6073702807547</v>
+      </c>
+      <c r="E65">
+        <v>25.767</v>
+      </c>
+      <c r="F65">
+        <v>25.767</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>40.9</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>-4.58</v>
+      </c>
+      <c r="L65">
+        <v>4.58</v>
+      </c>
+      <c r="M65">
+        <v>0.5153399999999999</v>
+      </c>
+      <c r="N65">
+        <v>4.06466</v>
+      </c>
+      <c r="O65">
+        <v>0.609699</v>
+      </c>
+      <c r="P65">
+        <v>3.454961</v>
+      </c>
+      <c r="Q65">
+        <v>-1.125039</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1178380413458734</v>
+      </c>
+      <c r="T65">
+        <v>1.732036585113066</v>
+      </c>
+      <c r="U65">
+        <v>0.02</v>
+      </c>
+      <c r="V65">
+        <v>0.15</v>
+      </c>
+      <c r="W65">
+        <v>0.017</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>8.887336515698376</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.05432055004899805</v>
+      </c>
+      <c r="C66">
+        <v>14.42675912151912</v>
+      </c>
+      <c r="D66">
+        <v>40.60275912151912</v>
+      </c>
+      <c r="E66">
+        <v>26.176</v>
+      </c>
+      <c r="F66">
+        <v>26.176</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>40.9</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>-4.58</v>
+      </c>
+      <c r="L66">
+        <v>4.58</v>
+      </c>
+      <c r="M66">
+        <v>0.5235199999999999</v>
+      </c>
+      <c r="N66">
+        <v>4.056480000000001</v>
+      </c>
+      <c r="O66">
+        <v>0.608472</v>
+      </c>
+      <c r="P66">
+        <v>3.448008000000001</v>
+      </c>
+      <c r="Q66">
+        <v>-1.131991999999999</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1206681945805501</v>
+      </c>
+      <c r="T66">
+        <v>1.777199818972386</v>
+      </c>
+      <c r="U66">
+        <v>0.02</v>
+      </c>
+      <c r="V66">
+        <v>0.15</v>
+      </c>
+      <c r="W66">
+        <v>0.017</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>8.74847188264059</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.05433102480002294</v>
+      </c>
+      <c r="C67">
+        <v>14.01314900940258</v>
+      </c>
+      <c r="D67">
+        <v>40.59814900940258</v>
+      </c>
+      <c r="E67">
+        <v>26.585</v>
+      </c>
+      <c r="F67">
+        <v>26.585</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>40.9</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>-4.58</v>
+      </c>
+      <c r="L67">
+        <v>4.58</v>
+      </c>
+      <c r="M67">
+        <v>0.5317</v>
+      </c>
+      <c r="N67">
+        <v>4.0483</v>
+      </c>
+      <c r="O67">
+        <v>0.607245</v>
+      </c>
+      <c r="P67">
+        <v>3.441055</v>
+      </c>
+      <c r="Q67">
+        <v>-1.138945</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1236600708572084</v>
+      </c>
+      <c r="T67">
+        <v>1.824943809052238</v>
+      </c>
+      <c r="U67">
+        <v>0.02</v>
+      </c>
+      <c r="V67">
+        <v>0.15</v>
+      </c>
+      <c r="W67">
+        <v>0.017</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>8.61388000752304</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.05434149955104783</v>
+      </c>
+      <c r="C68">
+        <v>13.59953994404845</v>
+      </c>
+      <c r="D68">
+        <v>40.59353994404845</v>
+      </c>
+      <c r="E68">
+        <v>26.994</v>
+      </c>
+      <c r="F68">
+        <v>26.994</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>40.9</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>-4.58</v>
+      </c>
+      <c r="L68">
+        <v>4.58</v>
+      </c>
+      <c r="M68">
+        <v>0.5398799999999999</v>
+      </c>
+      <c r="N68">
+        <v>4.04012</v>
+      </c>
+      <c r="O68">
+        <v>0.6060179999999999</v>
+      </c>
+      <c r="P68">
+        <v>3.434102</v>
+      </c>
+      <c r="Q68">
+        <v>-1.145898</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1268279398560231</v>
+      </c>
+      <c r="T68">
+        <v>1.875496269136788</v>
+      </c>
+      <c r="U68">
+        <v>0.02</v>
+      </c>
+      <c r="V68">
+        <v>0.15</v>
+      </c>
+      <c r="W68">
+        <v>0.017</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>8.483366674075722</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.05435197430207273</v>
+      </c>
+      <c r="C69">
+        <v>13.18593192510025</v>
+      </c>
+      <c r="D69">
+        <v>40.58893192510025</v>
+      </c>
+      <c r="E69">
+        <v>27.403</v>
+      </c>
+      <c r="F69">
+        <v>27.403</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>40.9</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>-4.58</v>
+      </c>
+      <c r="L69">
+        <v>4.58</v>
+      </c>
+      <c r="M69">
+        <v>0.54806</v>
+      </c>
+      <c r="N69">
+        <v>4.031940000000001</v>
+      </c>
+      <c r="O69">
+        <v>0.6047910000000001</v>
+      </c>
+      <c r="P69">
+        <v>3.427149</v>
+      </c>
+      <c r="Q69">
+        <v>-1.152851</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1301878009153719</v>
+      </c>
+      <c r="T69">
+        <v>1.929112514681007</v>
+      </c>
+      <c r="U69">
+        <v>0.02</v>
+      </c>
+      <c r="V69">
+        <v>0.15</v>
+      </c>
+      <c r="W69">
+        <v>0.017</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>8.356749261029815</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.05436244905309762</v>
+      </c>
+      <c r="C70">
+        <v>12.77232495220166</v>
+      </c>
+      <c r="D70">
+        <v>40.58432495220166</v>
+      </c>
+      <c r="E70">
+        <v>27.812</v>
+      </c>
+      <c r="F70">
+        <v>27.812</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>40.9</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>-4.58</v>
+      </c>
+      <c r="L70">
+        <v>4.58</v>
+      </c>
+      <c r="M70">
+        <v>0.55624</v>
+      </c>
+      <c r="N70">
+        <v>4.02376</v>
+      </c>
+      <c r="O70">
+        <v>0.603564</v>
+      </c>
+      <c r="P70">
+        <v>3.420196</v>
+      </c>
+      <c r="Q70">
+        <v>-1.159804</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1337576532909301</v>
+      </c>
+      <c r="T70">
+        <v>1.98607977557174</v>
+      </c>
+      <c r="U70">
+        <v>0.02</v>
+      </c>
+      <c r="V70">
+        <v>0.15</v>
+      </c>
+      <c r="W70">
+        <v>0.017</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>8.233855889544083</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.05437292380412251</v>
+      </c>
+      <c r="C71">
+        <v>12.35871902499655</v>
+      </c>
+      <c r="D71">
+        <v>40.57971902499655</v>
+      </c>
+      <c r="E71">
+        <v>28.221</v>
+      </c>
+      <c r="F71">
+        <v>28.221</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>40.9</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>-4.58</v>
+      </c>
+      <c r="L71">
+        <v>4.58</v>
+      </c>
+      <c r="M71">
+        <v>0.5644199999999999</v>
+      </c>
+      <c r="N71">
+        <v>4.01558</v>
+      </c>
+      <c r="O71">
+        <v>0.602337</v>
+      </c>
+      <c r="P71">
+        <v>3.413243</v>
+      </c>
+      <c r="Q71">
+        <v>-1.166757</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1375578187229759</v>
+      </c>
+      <c r="T71">
+        <v>2.046722343616714</v>
+      </c>
+      <c r="U71">
+        <v>0.02</v>
+      </c>
+      <c r="V71">
+        <v>0.15</v>
+      </c>
+      <c r="W71">
+        <v>0.017</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>8.114524644768082</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.05438339855514741</v>
+      </c>
+      <c r="C72">
+        <v>11.94511414312892</v>
+      </c>
+      <c r="D72">
+        <v>40.57511414312892</v>
+      </c>
+      <c r="E72">
+        <v>28.63</v>
+      </c>
+      <c r="F72">
+        <v>28.63</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>40.9</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>-4.58</v>
+      </c>
+      <c r="L72">
+        <v>4.58</v>
+      </c>
+      <c r="M72">
+        <v>0.5726</v>
+      </c>
+      <c r="N72">
+        <v>4.007400000000001</v>
+      </c>
+      <c r="O72">
+        <v>0.60111</v>
+      </c>
+      <c r="P72">
+        <v>3.40629</v>
+      </c>
+      <c r="Q72">
+        <v>-1.17371</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.141611328517158</v>
+      </c>
+      <c r="T72">
+        <v>2.111407749531352</v>
+      </c>
+      <c r="U72">
+        <v>0.02</v>
+      </c>
+      <c r="V72">
+        <v>0.15</v>
+      </c>
+      <c r="W72">
+        <v>0.017</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>7.998602864128538</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.0550577233061723</v>
+      </c>
+      <c r="C73">
+        <v>11.24185260282882</v>
+      </c>
+      <c r="D73">
+        <v>40.28085260282882</v>
+      </c>
+      <c r="E73">
+        <v>29.039</v>
+      </c>
+      <c r="F73">
+        <v>29.039</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>40.9</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>-4.58</v>
+      </c>
+      <c r="L73">
+        <v>4.58</v>
+      </c>
+      <c r="M73">
+        <v>0.6127229</v>
+      </c>
+      <c r="N73">
+        <v>3.9672771</v>
+      </c>
+      <c r="O73">
+        <v>0.5950915649999999</v>
+      </c>
+      <c r="P73">
+        <v>3.372185535</v>
+      </c>
+      <c r="Q73">
+        <v>-1.207814465</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.145944390710939</v>
+      </c>
+      <c r="T73">
+        <v>2.180554217922862</v>
+      </c>
+      <c r="U73">
+        <v>0.0211</v>
+      </c>
+      <c r="V73">
+        <v>0.15</v>
+      </c>
+      <c r="W73">
+        <v>0.017935</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>7.474830792190075</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.0550775480571972</v>
+      </c>
+      <c r="C74">
+        <v>10.82426605759388</v>
+      </c>
+      <c r="D74">
+        <v>40.27226605759387</v>
+      </c>
+      <c r="E74">
+        <v>29.448</v>
+      </c>
+      <c r="F74">
+        <v>29.448</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>40.9</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>-4.58</v>
+      </c>
+      <c r="L74">
+        <v>4.58</v>
+      </c>
+      <c r="M74">
+        <v>0.6213527999999999</v>
+      </c>
+      <c r="N74">
+        <v>3.9586472</v>
+      </c>
+      <c r="O74">
+        <v>0.59379708</v>
+      </c>
+      <c r="P74">
+        <v>3.36485012</v>
+      </c>
+      <c r="Q74">
+        <v>-1.21514988</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1505869573471328</v>
+      </c>
+      <c r="T74">
+        <v>2.254639719770909</v>
+      </c>
+      <c r="U74">
+        <v>0.0211</v>
+      </c>
+      <c r="V74">
+        <v>0.15</v>
+      </c>
+      <c r="W74">
+        <v>0.017935</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>7.371013697854103</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.05509737280822209</v>
+      </c>
+      <c r="C75">
+        <v>10.40668317231354</v>
+      </c>
+      <c r="D75">
+        <v>40.26368317231353</v>
+      </c>
+      <c r="E75">
+        <v>29.857</v>
+      </c>
+      <c r="F75">
+        <v>29.857</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>40.9</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>-4.58</v>
+      </c>
+      <c r="L75">
+        <v>4.58</v>
+      </c>
+      <c r="M75">
+        <v>0.6299827</v>
+      </c>
+      <c r="N75">
+        <v>3.9500173</v>
+      </c>
+      <c r="O75">
+        <v>0.5925025949999999</v>
+      </c>
+      <c r="P75">
+        <v>3.357514705</v>
+      </c>
+      <c r="Q75">
+        <v>-1.222485295</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1555734178082299</v>
+      </c>
+      <c r="T75">
+        <v>2.334213036570663</v>
+      </c>
+      <c r="U75">
+        <v>0.0211</v>
+      </c>
+      <c r="V75">
+        <v>0.15</v>
+      </c>
+      <c r="W75">
+        <v>0.017935</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>7.270040907472538</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.05511719755924697</v>
+      </c>
+      <c r="C76">
+        <v>9.989103944648249</v>
+      </c>
+      <c r="D76">
+        <v>40.25510394464825</v>
+      </c>
+      <c r="E76">
+        <v>30.266</v>
+      </c>
+      <c r="F76">
+        <v>30.266</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>40.9</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>-4.58</v>
+      </c>
+      <c r="L76">
+        <v>4.58</v>
+      </c>
+      <c r="M76">
+        <v>0.6386126</v>
+      </c>
+      <c r="N76">
+        <v>3.9413874</v>
+      </c>
+      <c r="O76">
+        <v>0.59120811</v>
+      </c>
+      <c r="P76">
+        <v>3.35017929</v>
+      </c>
+      <c r="Q76">
+        <v>-1.22982071</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1609434521509499</v>
+      </c>
+      <c r="T76">
+        <v>2.419907377739629</v>
+      </c>
+      <c r="U76">
+        <v>0.0211</v>
+      </c>
+      <c r="V76">
+        <v>0.15</v>
+      </c>
+      <c r="W76">
+        <v>0.017935</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>7.171797111425612</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.05513702231027186</v>
+      </c>
+      <c r="C77">
+        <v>9.571528372260467</v>
+      </c>
+      <c r="D77">
+        <v>40.24652837226046</v>
+      </c>
+      <c r="E77">
+        <v>30.675</v>
+      </c>
+      <c r="F77">
+        <v>30.675</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>40.9</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>-4.58</v>
+      </c>
+      <c r="L77">
+        <v>4.58</v>
+      </c>
+      <c r="M77">
+        <v>0.6472424999999999</v>
+      </c>
+      <c r="N77">
+        <v>3.9327575</v>
+      </c>
+      <c r="O77">
+        <v>0.589913625</v>
+      </c>
+      <c r="P77">
+        <v>3.342843875</v>
+      </c>
+      <c r="Q77">
+        <v>-1.237156125</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1667430892410875</v>
+      </c>
+      <c r="T77">
+        <v>2.512457266202111</v>
+      </c>
+      <c r="U77">
+        <v>0.0211</v>
+      </c>
+      <c r="V77">
+        <v>0.15</v>
+      </c>
+      <c r="W77">
+        <v>0.017935</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>7.076173149939939</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.05515684706129676</v>
+      </c>
+      <c r="C78">
+        <v>9.153956452814615</v>
+      </c>
+      <c r="D78">
+        <v>40.23795645281461</v>
+      </c>
+      <c r="E78">
+        <v>31.084</v>
+      </c>
+      <c r="F78">
+        <v>31.084</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>40.9</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>-4.58</v>
+      </c>
+      <c r="L78">
+        <v>4.58</v>
+      </c>
+      <c r="M78">
+        <v>0.6558724</v>
+      </c>
+      <c r="N78">
+        <v>3.9241276</v>
+      </c>
+      <c r="O78">
+        <v>0.58861914</v>
+      </c>
+      <c r="P78">
+        <v>3.33550846</v>
+      </c>
+      <c r="Q78">
+        <v>-1.24449154</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1730260294220698</v>
+      </c>
+      <c r="T78">
+        <v>2.612719645369802</v>
+      </c>
+      <c r="U78">
+        <v>0.0211</v>
+      </c>
+      <c r="V78">
+        <v>0.15</v>
+      </c>
+      <c r="W78">
+        <v>0.017935</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>6.98306560849336</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.05517667181232165</v>
+      </c>
+      <c r="C79">
+        <v>8.736388183977137</v>
+      </c>
+      <c r="D79">
+        <v>40.22938818397714</v>
+      </c>
+      <c r="E79">
+        <v>31.493</v>
+      </c>
+      <c r="F79">
+        <v>31.493</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>40.9</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>-4.58</v>
+      </c>
+      <c r="L79">
+        <v>4.58</v>
+      </c>
+      <c r="M79">
+        <v>0.6645023</v>
+      </c>
+      <c r="N79">
+        <v>3.9154977</v>
+      </c>
+      <c r="O79">
+        <v>0.587324655</v>
+      </c>
+      <c r="P79">
+        <v>3.328173045</v>
+      </c>
+      <c r="Q79">
+        <v>-1.251826955</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1798553122274854</v>
+      </c>
+      <c r="T79">
+        <v>2.721700492291204</v>
+      </c>
+      <c r="U79">
+        <v>0.0211</v>
+      </c>
+      <c r="V79">
+        <v>0.15</v>
+      </c>
+      <c r="W79">
+        <v>0.017935</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>6.892376444746692</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.05519649656334655</v>
+      </c>
+      <c r="C80">
+        <v>8.318823563416437</v>
+      </c>
+      <c r="D80">
+        <v>40.22082356341644</v>
+      </c>
+      <c r="E80">
+        <v>31.902</v>
+      </c>
+      <c r="F80">
+        <v>31.902</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>40.9</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>-4.58</v>
+      </c>
+      <c r="L80">
+        <v>4.58</v>
+      </c>
+      <c r="M80">
+        <v>0.6731322000000001</v>
+      </c>
+      <c r="N80">
+        <v>3.9068678</v>
+      </c>
+      <c r="O80">
+        <v>0.58603017</v>
+      </c>
+      <c r="P80">
+        <v>3.32083763</v>
+      </c>
+      <c r="Q80">
+        <v>-1.25916237</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1873054389243025</v>
+      </c>
+      <c r="T80">
+        <v>2.840588688932733</v>
+      </c>
+      <c r="U80">
+        <v>0.0211</v>
+      </c>
+      <c r="V80">
+        <v>0.15</v>
+      </c>
+      <c r="W80">
+        <v>0.017935</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>6.804012644173016</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.05521632131437143</v>
+      </c>
+      <c r="C81">
+        <v>7.901262588802936</v>
+      </c>
+      <c r="D81">
+        <v>40.21226258880294</v>
+      </c>
+      <c r="E81">
+        <v>32.311</v>
+      </c>
+      <c r="F81">
+        <v>32.311</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>40.9</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>-4.58</v>
+      </c>
+      <c r="L81">
+        <v>4.58</v>
+      </c>
+      <c r="M81">
+        <v>0.6817621</v>
+      </c>
+      <c r="N81">
+        <v>3.8982379</v>
+      </c>
+      <c r="O81">
+        <v>0.5847356849999999</v>
+      </c>
+      <c r="P81">
+        <v>3.313502215</v>
+      </c>
+      <c r="Q81">
+        <v>-1.266497785</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.1954651014970069</v>
+      </c>
+      <c r="T81">
+        <v>2.970799570968694</v>
+      </c>
+      <c r="U81">
+        <v>0.0211</v>
+      </c>
+      <c r="V81">
+        <v>0.15</v>
+      </c>
+      <c r="W81">
+        <v>0.017935</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>6.717885901841712</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.05523614606539633</v>
+      </c>
+      <c r="C82">
+        <v>7.483705257808985</v>
+      </c>
+      <c r="D82">
+        <v>40.20370525780898</v>
+      </c>
+      <c r="E82">
+        <v>32.72</v>
+      </c>
+      <c r="F82">
+        <v>32.72</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>40.9</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>-4.58</v>
+      </c>
+      <c r="L82">
+        <v>4.58</v>
+      </c>
+      <c r="M82">
+        <v>0.690392</v>
+      </c>
+      <c r="N82">
+        <v>3.889608</v>
+      </c>
+      <c r="O82">
+        <v>0.5834412</v>
+      </c>
+      <c r="P82">
+        <v>3.3061668</v>
+      </c>
+      <c r="Q82">
+        <v>-1.2738332</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2044407303269817</v>
+      </c>
+      <c r="T82">
+        <v>3.114031541208251</v>
+      </c>
+      <c r="U82">
+        <v>0.0211</v>
+      </c>
+      <c r="V82">
+        <v>0.15</v>
+      </c>
+      <c r="W82">
+        <v>0.017935</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>6.633912328068691</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.05525597081642122</v>
+      </c>
+      <c r="C83">
+        <v>7.066151568108971</v>
+      </c>
+      <c r="D83">
+        <v>40.19515156810897</v>
+      </c>
+      <c r="E83">
+        <v>33.129</v>
+      </c>
+      <c r="F83">
+        <v>33.129</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>40.9</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>-4.58</v>
+      </c>
+      <c r="L83">
+        <v>4.58</v>
+      </c>
+      <c r="M83">
+        <v>0.6990219</v>
+      </c>
+      <c r="N83">
+        <v>3.8809781</v>
+      </c>
+      <c r="O83">
+        <v>0.582146715</v>
+      </c>
+      <c r="P83">
+        <v>3.298831385</v>
+      </c>
+      <c r="Q83">
+        <v>-1.281168615</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2143611621916907</v>
+      </c>
+      <c r="T83">
+        <v>3.27234056094671</v>
+      </c>
+      <c r="U83">
+        <v>0.0211</v>
+      </c>
+      <c r="V83">
+        <v>0.15</v>
+      </c>
+      <c r="W83">
+        <v>0.017935</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>6.552012175870312</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.05527579556744611</v>
+      </c>
+      <c r="C84">
+        <v>6.648601517379227</v>
+      </c>
+      <c r="D84">
+        <v>40.18660151737923</v>
+      </c>
+      <c r="E84">
+        <v>33.538</v>
+      </c>
+      <c r="F84">
+        <v>33.538</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>40.9</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>-4.58</v>
+      </c>
+      <c r="L84">
+        <v>4.58</v>
+      </c>
+      <c r="M84">
+        <v>0.7076518000000001</v>
+      </c>
+      <c r="N84">
+        <v>3.8723482</v>
+      </c>
+      <c r="O84">
+        <v>0.58085223</v>
+      </c>
+      <c r="P84">
+        <v>3.29149597</v>
+      </c>
+      <c r="Q84">
+        <v>-1.28850403</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2253838642635896</v>
+      </c>
+      <c r="T84">
+        <v>3.448239471767218</v>
+      </c>
+      <c r="U84">
+        <v>0.0211</v>
+      </c>
+      <c r="V84">
+        <v>0.15</v>
+      </c>
+      <c r="W84">
+        <v>0.017935</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>6.472109588359699</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.056353870318471</v>
+      </c>
+      <c r="C85">
+        <v>5.780062273823035</v>
+      </c>
+      <c r="D85">
+        <v>39.72706227382304</v>
+      </c>
+      <c r="E85">
+        <v>33.947</v>
+      </c>
+      <c r="F85">
+        <v>33.947</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>40.9</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>-4.58</v>
+      </c>
+      <c r="L85">
+        <v>4.58</v>
+      </c>
+      <c r="M85">
+        <v>0.7672022000000001</v>
+      </c>
+      <c r="N85">
+        <v>3.8127978</v>
+      </c>
+      <c r="O85">
+        <v>0.57191967</v>
+      </c>
+      <c r="P85">
+        <v>3.24087813</v>
+      </c>
+      <c r="Q85">
+        <v>-1.33912187</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2377033548145354</v>
+      </c>
+      <c r="T85">
+        <v>3.644832372096023</v>
+      </c>
+      <c r="U85">
+        <v>0.0226</v>
+      </c>
+      <c r="V85">
+        <v>0.15</v>
+      </c>
+      <c r="W85">
+        <v>0.01921</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>5.969743048182083</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.0563864450694959</v>
+      </c>
+      <c r="C86">
+        <v>5.357340508920274</v>
+      </c>
+      <c r="D86">
+        <v>39.71334050892027</v>
+      </c>
+      <c r="E86">
+        <v>34.35599999999999</v>
+      </c>
+      <c r="F86">
+        <v>34.35599999999999</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>40.9</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>-4.58</v>
+      </c>
+      <c r="L86">
+        <v>4.58</v>
+      </c>
+      <c r="M86">
+        <v>0.7764455999999998</v>
+      </c>
+      <c r="N86">
+        <v>3.8035544</v>
+      </c>
+      <c r="O86">
+        <v>0.57053316</v>
+      </c>
+      <c r="P86">
+        <v>3.23302124</v>
+      </c>
+      <c r="Q86">
+        <v>-1.34697876</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2515627816843494</v>
+      </c>
+      <c r="T86">
+        <v>3.865999384965925</v>
+      </c>
+      <c r="U86">
+        <v>0.0226</v>
+      </c>
+      <c r="V86">
+        <v>0.15</v>
+      </c>
+      <c r="W86">
+        <v>0.01921</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>5.898674678560869</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.05641901982052079</v>
+      </c>
+      <c r="C87">
+        <v>4.934628219765735</v>
+      </c>
+      <c r="D87">
+        <v>39.69962821976574</v>
+      </c>
+      <c r="E87">
+        <v>34.765</v>
+      </c>
+      <c r="F87">
+        <v>34.765</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>40.9</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>-4.58</v>
+      </c>
+      <c r="L87">
+        <v>4.58</v>
+      </c>
+      <c r="M87">
+        <v>0.785689</v>
+      </c>
+      <c r="N87">
+        <v>3.794311</v>
+      </c>
+      <c r="O87">
+        <v>0.56914665</v>
+      </c>
+      <c r="P87">
+        <v>3.22516435</v>
+      </c>
+      <c r="Q87">
+        <v>-1.35483565</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2672701321368053</v>
+      </c>
+      <c r="T87">
+        <v>4.11665533288515</v>
+      </c>
+      <c r="U87">
+        <v>0.0226</v>
+      </c>
+      <c r="V87">
+        <v>0.15</v>
+      </c>
+      <c r="W87">
+        <v>0.01921</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>5.829278505871916</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.05645159457154568</v>
+      </c>
+      <c r="C88">
+        <v>4.511925396547412</v>
+      </c>
+      <c r="D88">
+        <v>39.68592539654741</v>
+      </c>
+      <c r="E88">
+        <v>35.174</v>
+      </c>
+      <c r="F88">
+        <v>35.174</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>40.9</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>-4.58</v>
+      </c>
+      <c r="L88">
+        <v>4.58</v>
+      </c>
+      <c r="M88">
+        <v>0.7949324</v>
+      </c>
+      <c r="N88">
+        <v>3.7850676</v>
+      </c>
+      <c r="O88">
+        <v>0.56776014</v>
+      </c>
+      <c r="P88">
+        <v>3.21730746</v>
+      </c>
+      <c r="Q88">
+        <v>-1.36269254</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2852213897967549</v>
+      </c>
+      <c r="T88">
+        <v>4.403119273364264</v>
+      </c>
+      <c r="U88">
+        <v>0.0226</v>
+      </c>
+      <c r="V88">
+        <v>0.15</v>
+      </c>
+      <c r="W88">
+        <v>0.01921</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>5.761496197664103</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.05648416932257057</v>
+      </c>
+      <c r="C89">
+        <v>4.089232029466828</v>
+      </c>
+      <c r="D89">
+        <v>39.67223202946683</v>
+      </c>
+      <c r="E89">
+        <v>35.583</v>
+      </c>
+      <c r="F89">
+        <v>35.583</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>40.9</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>-4.58</v>
+      </c>
+      <c r="L89">
+        <v>4.58</v>
+      </c>
+      <c r="M89">
+        <v>0.8041757999999999</v>
+      </c>
+      <c r="N89">
+        <v>3.7758242</v>
+      </c>
+      <c r="O89">
+        <v>0.56637363</v>
+      </c>
+      <c r="P89">
+        <v>3.20945057</v>
+      </c>
+      <c r="Q89">
+        <v>-1.37054943</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.305934379404389</v>
+      </c>
+      <c r="T89">
+        <v>4.733654589301703</v>
+      </c>
+      <c r="U89">
+        <v>0.0226</v>
+      </c>
+      <c r="V89">
+        <v>0.15</v>
+      </c>
+      <c r="W89">
+        <v>0.01921</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>5.69527210343808</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.05651674407359547</v>
+      </c>
+      <c r="C90">
+        <v>3.666548108739022</v>
+      </c>
+      <c r="D90">
+        <v>39.65854810873902</v>
+      </c>
+      <c r="E90">
+        <v>35.992</v>
+      </c>
+      <c r="F90">
+        <v>35.992</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>40.9</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>-4.58</v>
+      </c>
+      <c r="L90">
+        <v>4.58</v>
+      </c>
+      <c r="M90">
+        <v>0.8134191999999999</v>
+      </c>
+      <c r="N90">
+        <v>3.7665808</v>
+      </c>
+      <c r="O90">
+        <v>0.5649871200000001</v>
+      </c>
+      <c r="P90">
+        <v>3.20159368</v>
+      </c>
+      <c r="Q90">
+        <v>-1.37840632</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3300995339466289</v>
+      </c>
+      <c r="T90">
+        <v>5.119279124562049</v>
+      </c>
+      <c r="U90">
+        <v>0.0226</v>
+      </c>
+      <c r="V90">
+        <v>0.15</v>
+      </c>
+      <c r="W90">
+        <v>0.01921</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>5.630553102262647</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.05654931882462036</v>
+      </c>
+      <c r="C91">
+        <v>3.243873624592531</v>
+      </c>
+      <c r="D91">
+        <v>39.64487362459253</v>
+      </c>
+      <c r="E91">
+        <v>36.401</v>
+      </c>
+      <c r="F91">
+        <v>36.401</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>40.9</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>-4.58</v>
+      </c>
+      <c r="L91">
+        <v>4.58</v>
+      </c>
+      <c r="M91">
+        <v>0.8226625999999999</v>
+      </c>
+      <c r="N91">
+        <v>3.7573374</v>
+      </c>
+      <c r="O91">
+        <v>0.5636006099999999</v>
+      </c>
+      <c r="P91">
+        <v>3.19373679</v>
+      </c>
+      <c r="Q91">
+        <v>-1.38626321</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3586583529510942</v>
+      </c>
+      <c r="T91">
+        <v>5.575017211687912</v>
+      </c>
+      <c r="U91">
+        <v>0.0226</v>
+      </c>
+      <c r="V91">
+        <v>0.15</v>
+      </c>
+      <c r="W91">
+        <v>0.01921</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>5.56728846066419</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.05658189357564525</v>
+      </c>
+      <c r="C92">
+        <v>2.821208567269359</v>
+      </c>
+      <c r="D92">
+        <v>39.63120856726936</v>
+      </c>
+      <c r="E92">
+        <v>36.81</v>
+      </c>
+      <c r="F92">
+        <v>36.81</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>40.9</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>-4.58</v>
+      </c>
+      <c r="L92">
+        <v>4.58</v>
+      </c>
+      <c r="M92">
+        <v>0.831906</v>
+      </c>
+      <c r="N92">
+        <v>3.748094</v>
+      </c>
+      <c r="O92">
+        <v>0.5622140999999999</v>
+      </c>
+      <c r="P92">
+        <v>3.1858799</v>
+      </c>
+      <c r="Q92">
+        <v>-1.3941201</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.3929289357564527</v>
+      </c>
+      <c r="T92">
+        <v>6.12190291623895</v>
+      </c>
+      <c r="U92">
+        <v>0.0226</v>
+      </c>
+      <c r="V92">
+        <v>0.15</v>
+      </c>
+      <c r="W92">
+        <v>0.01921</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>5.505429699990143</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.05661446832667014</v>
+      </c>
+      <c r="C93">
+        <v>2.39855292702498</v>
+      </c>
+      <c r="D93">
+        <v>39.61755292702498</v>
+      </c>
+      <c r="E93">
+        <v>37.219</v>
+      </c>
+      <c r="F93">
+        <v>37.219</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>40.9</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>-4.58</v>
+      </c>
+      <c r="L93">
+        <v>4.58</v>
+      </c>
+      <c r="M93">
+        <v>0.8411493999999999</v>
+      </c>
+      <c r="N93">
+        <v>3.7388506</v>
+      </c>
+      <c r="O93">
+        <v>0.56082759</v>
+      </c>
+      <c r="P93">
+        <v>3.17802301</v>
+      </c>
+      <c r="Q93">
+        <v>-1.40197699</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4348152036296684</v>
+      </c>
+      <c r="T93">
+        <v>6.790318777356883</v>
+      </c>
+      <c r="U93">
+        <v>0.0226</v>
+      </c>
+      <c r="V93">
+        <v>0.15</v>
+      </c>
+      <c r="W93">
+        <v>0.01921</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>5.444930472517725</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.05664704307769504</v>
+      </c>
+      <c r="C94">
+        <v>1.975906694128277</v>
+      </c>
+      <c r="D94">
+        <v>39.60390669412828</v>
+      </c>
+      <c r="E94">
+        <v>37.628</v>
+      </c>
+      <c r="F94">
+        <v>37.628</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>40.9</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>-4.58</v>
+      </c>
+      <c r="L94">
+        <v>4.58</v>
+      </c>
+      <c r="M94">
+        <v>0.8503927999999999</v>
+      </c>
+      <c r="N94">
+        <v>3.7296072</v>
+      </c>
+      <c r="O94">
+        <v>0.55944108</v>
+      </c>
+      <c r="P94">
+        <v>3.17016612</v>
+      </c>
+      <c r="Q94">
+        <v>-1.40983388</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.4871730384711883</v>
+      </c>
+      <c r="T94">
+        <v>7.625838603754301</v>
+      </c>
+      <c r="U94">
+        <v>0.0226</v>
+      </c>
+      <c r="V94">
+        <v>0.15</v>
+      </c>
+      <c r="W94">
+        <v>0.01921</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>5.385746445642532</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.05667961782871993</v>
+      </c>
+      <c r="C95">
+        <v>1.553269858861519</v>
+      </c>
+      <c r="D95">
+        <v>39.59026985886152</v>
+      </c>
+      <c r="E95">
+        <v>38.037</v>
+      </c>
+      <c r="F95">
+        <v>38.037</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>40.9</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>-4.58</v>
+      </c>
+      <c r="L95">
+        <v>4.58</v>
+      </c>
+      <c r="M95">
+        <v>0.8596362</v>
+      </c>
+      <c r="N95">
+        <v>3.7203638</v>
+      </c>
+      <c r="O95">
+        <v>0.55805457</v>
+      </c>
+      <c r="P95">
+        <v>3.16230923</v>
+      </c>
+      <c r="Q95">
+        <v>-1.41769077</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.5544902546959994</v>
+      </c>
+      <c r="T95">
+        <v>8.70007838055098</v>
+      </c>
+      <c r="U95">
+        <v>0.0226</v>
+      </c>
+      <c r="V95">
+        <v>0.15</v>
+      </c>
+      <c r="W95">
+        <v>0.01921</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>5.327835193538848</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.05671219257974482</v>
+      </c>
+      <c r="C96">
+        <v>1.130642411520405</v>
+      </c>
+      <c r="D96">
+        <v>39.5766424115204</v>
+      </c>
+      <c r="E96">
+        <v>38.446</v>
+      </c>
+      <c r="F96">
+        <v>38.446</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>40.9</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>-4.58</v>
+      </c>
+      <c r="L96">
+        <v>4.58</v>
+      </c>
+      <c r="M96">
+        <v>0.8688795999999999</v>
+      </c>
+      <c r="N96">
+        <v>3.7111204</v>
+      </c>
+      <c r="O96">
+        <v>0.55666806</v>
+      </c>
+      <c r="P96">
+        <v>3.154452340000001</v>
+      </c>
+      <c r="Q96">
+        <v>-1.425547659999999</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.6442465429957477</v>
+      </c>
+      <c r="T96">
+        <v>10.13239808294655</v>
+      </c>
+      <c r="U96">
+        <v>0.0226</v>
+      </c>
+      <c r="V96">
+        <v>0.15</v>
+      </c>
+      <c r="W96">
+        <v>0.01921</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>5.271156095735245</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.05674476733076972</v>
+      </c>
+      <c r="C97">
+        <v>0.7080243424139283</v>
+      </c>
+      <c r="D97">
+        <v>39.56302434241393</v>
+      </c>
+      <c r="E97">
+        <v>38.855</v>
+      </c>
+      <c r="F97">
+        <v>38.855</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>40.9</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>-4.58</v>
+      </c>
+      <c r="L97">
+        <v>4.58</v>
+      </c>
+      <c r="M97">
+        <v>0.878123</v>
+      </c>
+      <c r="N97">
+        <v>3.701877</v>
+      </c>
+      <c r="O97">
+        <v>0.55528155</v>
+      </c>
+      <c r="P97">
+        <v>3.14659545</v>
+      </c>
+      <c r="Q97">
+        <v>-1.43340455</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.7699053466153954</v>
+      </c>
+      <c r="T97">
+        <v>12.13764566630036</v>
+      </c>
+      <c r="U97">
+        <v>0.0226</v>
+      </c>
+      <c r="V97">
+        <v>0.15</v>
+      </c>
+      <c r="W97">
+        <v>0.01921</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>5.215670242095925</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.05677734208179461</v>
+      </c>
+      <c r="C98">
+        <v>0.2854156418644749</v>
+      </c>
+      <c r="D98">
+        <v>39.54941564186447</v>
+      </c>
+      <c r="E98">
+        <v>39.264</v>
+      </c>
+      <c r="F98">
+        <v>39.264</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>40.9</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>-4.58</v>
+      </c>
+      <c r="L98">
+        <v>4.58</v>
+      </c>
+      <c r="M98">
+        <v>0.8873663999999999</v>
+      </c>
+      <c r="N98">
+        <v>3.6926336</v>
+      </c>
+      <c r="O98">
+        <v>0.55389504</v>
+      </c>
+      <c r="P98">
+        <v>3.13873856</v>
+      </c>
+      <c r="Q98">
+        <v>-1.44126144</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.9583935520448644</v>
+      </c>
+      <c r="T98">
+        <v>15.14551704133103</v>
+      </c>
+      <c r="U98">
+        <v>0.0226</v>
+      </c>
+      <c r="V98">
+        <v>0.15</v>
+      </c>
+      <c r="W98">
+        <v>0.01921</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>5.16134034374076</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.05680991683281951</v>
+      </c>
+      <c r="C99">
+        <v>-0.1371836997923097</v>
+      </c>
+      <c r="D99">
+        <v>39.53581630020769</v>
+      </c>
+      <c r="E99">
+        <v>39.67299999999999</v>
+      </c>
+      <c r="F99">
+        <v>39.67299999999999</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>40.9</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>-4.58</v>
+      </c>
+      <c r="L99">
+        <v>4.58</v>
+      </c>
+      <c r="M99">
+        <v>0.8966097999999998</v>
+      </c>
+      <c r="N99">
+        <v>3.6833902</v>
+      </c>
+      <c r="O99">
+        <v>0.55250853</v>
+      </c>
+      <c r="P99">
+        <v>3.13088167</v>
+      </c>
+      <c r="Q99">
+        <v>-1.44911833</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.272540561093983</v>
+      </c>
+      <c r="T99">
+        <v>20.15863599971552</v>
+      </c>
+      <c r="U99">
+        <v>0.0226</v>
+      </c>
+      <c r="V99">
+        <v>0.15</v>
+      </c>
+      <c r="W99">
+        <v>0.01921</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>5.108130649475392</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.0568424915838444</v>
+      </c>
+      <c r="C100">
+        <v>-0.5597736922074574</v>
+      </c>
+      <c r="D100">
+        <v>39.52222630779254</v>
+      </c>
+      <c r="E100">
+        <v>40.082</v>
+      </c>
+      <c r="F100">
+        <v>40.082</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>40.9</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>-4.58</v>
+      </c>
+      <c r="L100">
+        <v>4.58</v>
+      </c>
+      <c r="M100">
+        <v>0.9058531999999999</v>
+      </c>
+      <c r="N100">
+        <v>3.6741468</v>
+      </c>
+      <c r="O100">
+        <v>0.55112202</v>
+      </c>
+      <c r="P100">
+        <v>3.12302478</v>
+      </c>
+      <c r="Q100">
+        <v>-1.45697522</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.900834579192218</v>
+      </c>
+      <c r="T100">
+        <v>30.1848739164845</v>
+      </c>
+      <c r="U100">
+        <v>0.0226</v>
+      </c>
+      <c r="V100">
+        <v>0.15</v>
+      </c>
+      <c r="W100">
+        <v>0.01921</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>5.056006867337887</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.05687506633486929</v>
+      </c>
+      <c r="C101">
+        <v>-0.9823543450187344</v>
+      </c>
+      <c r="D101">
+        <v>39.50864565498127</v>
+      </c>
+      <c r="E101">
+        <v>40.491</v>
+      </c>
+      <c r="F101">
+        <v>40.491</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>40.9</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>-4.58</v>
+      </c>
+      <c r="L101">
+        <v>4.58</v>
+      </c>
+      <c r="M101">
+        <v>0.9150965999999999</v>
+      </c>
+      <c r="N101">
+        <v>3.6649034</v>
+      </c>
+      <c r="O101">
+        <v>0.54973551</v>
+      </c>
+      <c r="P101">
+        <v>3.11516789</v>
+      </c>
+      <c r="Q101">
+        <v>-1.46483211</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.785716633486925</v>
+      </c>
+      <c r="T101">
+        <v>60.26358766679144</v>
+      </c>
+      <c r="U101">
+        <v>0.0226</v>
+      </c>
+      <c r="V101">
+        <v>0.15</v>
+      </c>
+      <c r="W101">
+        <v>0.01921</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>5.004936090900131</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
